--- a/Project2_Maroofi_Irwin/data_staging/inflation_excel_series/Unemployment_Rate_UNRATE.xlsx
+++ b/Project2_Maroofi_Irwin/data_staging/inflation_excel_series/Unemployment_Rate_UNRATE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3532" uniqueCount="970">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3588" uniqueCount="984">
   <si>
     <t>realtime_start</t>
   </si>
@@ -28,7 +28,7 @@
     <t>value</t>
   </si>
   <si>
-    <t>2021-08-03</t>
+    <t>2022-09-13</t>
   </si>
   <si>
     <t>1948-01-01</t>
@@ -2677,6 +2677,48 @@
     <t>2021-06-01</t>
   </si>
   <si>
+    <t>2021-07-01</t>
+  </si>
+  <si>
+    <t>2021-08-01</t>
+  </si>
+  <si>
+    <t>2021-09-01</t>
+  </si>
+  <si>
+    <t>2021-10-01</t>
+  </si>
+  <si>
+    <t>2021-11-01</t>
+  </si>
+  <si>
+    <t>2021-12-01</t>
+  </si>
+  <si>
+    <t>2022-01-01</t>
+  </si>
+  <si>
+    <t>2022-02-01</t>
+  </si>
+  <si>
+    <t>2022-03-01</t>
+  </si>
+  <si>
+    <t>2022-04-01</t>
+  </si>
+  <si>
+    <t>2022-05-01</t>
+  </si>
+  <si>
+    <t>2022-06-01</t>
+  </si>
+  <si>
+    <t>2022-07-01</t>
+  </si>
+  <si>
+    <t>2022-08-01</t>
+  </si>
+  <si>
     <t>3.4</t>
   </si>
   <si>
@@ -2917,13 +2959,13 @@
     <t>9.1</t>
   </si>
   <si>
-    <t>14.8</t>
-  </si>
-  <si>
-    <t>13.3</t>
-  </si>
-  <si>
-    <t>11.1</t>
+    <t>14.7</t>
+  </si>
+  <si>
+    <t>13.2</t>
+  </si>
+  <si>
+    <t>11.0</t>
   </si>
 </sst>
 </file>
@@ -3281,7 +3323,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E883"/>
+  <dimension ref="A1:E897"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3318,7 +3360,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>887</v>
+        <v>901</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3335,7 +3377,7 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>888</v>
+        <v>902</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3352,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>889</v>
+        <v>903</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3369,7 +3411,7 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>890</v>
+        <v>904</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3386,7 +3428,7 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>891</v>
+        <v>905</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3403,7 +3445,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>892</v>
+        <v>906</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3420,7 +3462,7 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>892</v>
+        <v>906</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3437,7 +3479,7 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>890</v>
+        <v>904</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3454,7 +3496,7 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>888</v>
+        <v>902</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3471,7 +3513,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>893</v>
+        <v>907</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3488,7 +3530,7 @@
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>888</v>
+        <v>902</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3505,7 +3547,7 @@
         <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>889</v>
+        <v>903</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3522,7 +3564,7 @@
         <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>894</v>
+        <v>908</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3539,7 +3581,7 @@
         <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>895</v>
+        <v>909</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3556,7 +3598,7 @@
         <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3573,7 +3615,7 @@
         <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>897</v>
+        <v>911</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3590,7 +3632,7 @@
         <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>898</v>
+        <v>912</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3607,7 +3649,7 @@
         <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>899</v>
+        <v>913</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3624,7 +3666,7 @@
         <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>900</v>
+        <v>914</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3641,7 +3683,7 @@
         <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>901</v>
+        <v>915</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3658,7 +3700,7 @@
         <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>902</v>
+        <v>916</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3675,7 +3717,7 @@
         <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>903</v>
+        <v>917</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3692,7 +3734,7 @@
         <v>27</v>
       </c>
       <c r="E24" t="s">
-        <v>904</v>
+        <v>918</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3709,7 +3751,7 @@
         <v>28</v>
       </c>
       <c r="E25" t="s">
-        <v>902</v>
+        <v>916</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3726,7 +3768,7 @@
         <v>29</v>
       </c>
       <c r="E26" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3743,7 +3785,7 @@
         <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>904</v>
+        <v>918</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3760,7 +3802,7 @@
         <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>906</v>
+        <v>920</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3777,7 +3819,7 @@
         <v>32</v>
       </c>
       <c r="E29" t="s">
-        <v>907</v>
+        <v>921</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3794,7 +3836,7 @@
         <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>908</v>
+        <v>922</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3811,7 +3853,7 @@
         <v>34</v>
       </c>
       <c r="E31" t="s">
-        <v>909</v>
+        <v>923</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3828,7 +3870,7 @@
         <v>35</v>
       </c>
       <c r="E32" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3845,7 +3887,7 @@
         <v>36</v>
       </c>
       <c r="E33" t="s">
-        <v>910</v>
+        <v>924</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3862,7 +3904,7 @@
         <v>37</v>
       </c>
       <c r="E34" t="s">
-        <v>911</v>
+        <v>925</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3879,7 +3921,7 @@
         <v>38</v>
       </c>
       <c r="E35" t="s">
-        <v>912</v>
+        <v>926</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3896,7 +3938,7 @@
         <v>39</v>
       </c>
       <c r="E36" t="s">
-        <v>912</v>
+        <v>926</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3913,7 +3955,7 @@
         <v>40</v>
       </c>
       <c r="E37" t="s">
-        <v>894</v>
+        <v>908</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3930,7 +3972,7 @@
         <v>41</v>
       </c>
       <c r="E38" t="s">
-        <v>893</v>
+        <v>907</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3947,7 +3989,7 @@
         <v>42</v>
       </c>
       <c r="E39" t="s">
-        <v>887</v>
+        <v>901</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3964,7 +4006,7 @@
         <v>43</v>
       </c>
       <c r="E40" t="s">
-        <v>887</v>
+        <v>901</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3981,7 +4023,7 @@
         <v>44</v>
       </c>
       <c r="E41" t="s">
-        <v>913</v>
+        <v>927</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3998,7 +4040,7 @@
         <v>45</v>
       </c>
       <c r="E42" t="s">
-        <v>914</v>
+        <v>928</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -4015,7 +4057,7 @@
         <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>915</v>
+        <v>929</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -4032,7 +4074,7 @@
         <v>47</v>
       </c>
       <c r="E44" t="s">
-        <v>913</v>
+        <v>927</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -4049,7 +4091,7 @@
         <v>48</v>
       </c>
       <c r="E45" t="s">
-        <v>913</v>
+        <v>927</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -4066,7 +4108,7 @@
         <v>49</v>
       </c>
       <c r="E46" t="s">
-        <v>916</v>
+        <v>930</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -4083,7 +4125,7 @@
         <v>50</v>
       </c>
       <c r="E47" t="s">
-        <v>891</v>
+        <v>905</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -4100,7 +4142,7 @@
         <v>51</v>
       </c>
       <c r="E48" t="s">
-        <v>891</v>
+        <v>905</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -4117,7 +4159,7 @@
         <v>52</v>
       </c>
       <c r="E49" t="s">
-        <v>913</v>
+        <v>927</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -4134,7 +4176,7 @@
         <v>53</v>
       </c>
       <c r="E50" t="s">
-        <v>915</v>
+        <v>929</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -4151,7 +4193,7 @@
         <v>54</v>
       </c>
       <c r="E51" t="s">
-        <v>913</v>
+        <v>927</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -4168,7 +4210,7 @@
         <v>55</v>
       </c>
       <c r="E52" t="s">
-        <v>917</v>
+        <v>931</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -4185,7 +4227,7 @@
         <v>56</v>
       </c>
       <c r="E53" t="s">
-        <v>917</v>
+        <v>931</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -4202,7 +4244,7 @@
         <v>57</v>
       </c>
       <c r="E54" t="s">
-        <v>914</v>
+        <v>928</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -4219,7 +4261,7 @@
         <v>58</v>
       </c>
       <c r="E55" t="s">
-        <v>914</v>
+        <v>928</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -4236,7 +4278,7 @@
         <v>59</v>
       </c>
       <c r="E56" t="s">
-        <v>915</v>
+        <v>929</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -4253,7 +4295,7 @@
         <v>60</v>
       </c>
       <c r="E57" t="s">
-        <v>887</v>
+        <v>901</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -4270,7 +4312,7 @@
         <v>61</v>
       </c>
       <c r="E58" t="s">
-        <v>913</v>
+        <v>927</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -4287,7 +4329,7 @@
         <v>62</v>
       </c>
       <c r="E59" t="s">
-        <v>914</v>
+        <v>928</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -4304,7 +4346,7 @@
         <v>63</v>
       </c>
       <c r="E60" t="s">
-        <v>918</v>
+        <v>932</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -4321,7 +4363,7 @@
         <v>64</v>
       </c>
       <c r="E61" t="s">
-        <v>919</v>
+        <v>933</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -4338,7 +4380,7 @@
         <v>65</v>
       </c>
       <c r="E62" t="s">
-        <v>917</v>
+        <v>931</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -4355,7 +4397,7 @@
         <v>66</v>
       </c>
       <c r="E63" t="s">
-        <v>920</v>
+        <v>934</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -4372,7 +4414,7 @@
         <v>67</v>
       </c>
       <c r="E64" t="s">
-        <v>920</v>
+        <v>934</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -4389,7 +4431,7 @@
         <v>68</v>
       </c>
       <c r="E65" t="s">
-        <v>919</v>
+        <v>933</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -4406,7 +4448,7 @@
         <v>69</v>
       </c>
       <c r="E66" t="s">
-        <v>921</v>
+        <v>935</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -4423,7 +4465,7 @@
         <v>70</v>
       </c>
       <c r="E67" t="s">
-        <v>921</v>
+        <v>935</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -4440,7 +4482,7 @@
         <v>71</v>
       </c>
       <c r="E68" t="s">
-        <v>920</v>
+        <v>934</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -4457,7 +4499,7 @@
         <v>72</v>
       </c>
       <c r="E69" t="s">
-        <v>919</v>
+        <v>933</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -4474,7 +4516,7 @@
         <v>73</v>
       </c>
       <c r="E70" t="s">
-        <v>917</v>
+        <v>931</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -4491,7 +4533,7 @@
         <v>74</v>
       </c>
       <c r="E71" t="s">
-        <v>913</v>
+        <v>927</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -4508,7 +4550,7 @@
         <v>75</v>
       </c>
       <c r="E72" t="s">
-        <v>891</v>
+        <v>905</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -4525,7 +4567,7 @@
         <v>76</v>
       </c>
       <c r="E73" t="s">
-        <v>910</v>
+        <v>924</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -4542,7 +4584,7 @@
         <v>77</v>
       </c>
       <c r="E74" t="s">
-        <v>922</v>
+        <v>936</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -4559,7 +4601,7 @@
         <v>78</v>
       </c>
       <c r="E75" t="s">
-        <v>923</v>
+        <v>937</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -4576,7 +4618,7 @@
         <v>79</v>
       </c>
       <c r="E76" t="s">
-        <v>924</v>
+        <v>938</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -4593,7 +4635,7 @@
         <v>80</v>
       </c>
       <c r="E77" t="s">
-        <v>925</v>
+        <v>939</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -4610,7 +4652,7 @@
         <v>81</v>
       </c>
       <c r="E78" t="s">
-        <v>925</v>
+        <v>939</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -4627,7 +4669,7 @@
         <v>82</v>
       </c>
       <c r="E79" t="s">
-        <v>926</v>
+        <v>940</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -4644,7 +4686,7 @@
         <v>83</v>
       </c>
       <c r="E80" t="s">
-        <v>907</v>
+        <v>921</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -4661,7 +4703,7 @@
         <v>84</v>
       </c>
       <c r="E81" t="s">
-        <v>927</v>
+        <v>941</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -4678,7 +4720,7 @@
         <v>85</v>
       </c>
       <c r="E82" t="s">
-        <v>898</v>
+        <v>912</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -4695,7 +4737,7 @@
         <v>86</v>
       </c>
       <c r="E83" t="s">
-        <v>924</v>
+        <v>938</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -4712,7 +4754,7 @@
         <v>87</v>
       </c>
       <c r="E84" t="s">
-        <v>897</v>
+        <v>911</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -4729,7 +4771,7 @@
         <v>88</v>
       </c>
       <c r="E85" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -4746,7 +4788,7 @@
         <v>89</v>
       </c>
       <c r="E86" t="s">
-        <v>922</v>
+        <v>936</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -4763,7 +4805,7 @@
         <v>90</v>
       </c>
       <c r="E87" t="s">
-        <v>895</v>
+        <v>909</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -4780,7 +4822,7 @@
         <v>91</v>
       </c>
       <c r="E88" t="s">
-        <v>928</v>
+        <v>942</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -4797,7 +4839,7 @@
         <v>92</v>
       </c>
       <c r="E89" t="s">
-        <v>895</v>
+        <v>909</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4814,7 +4856,7 @@
         <v>93</v>
       </c>
       <c r="E90" t="s">
-        <v>894</v>
+        <v>908</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4831,7 +4873,7 @@
         <v>94</v>
       </c>
       <c r="E91" t="s">
-        <v>912</v>
+        <v>926</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4848,7 +4890,7 @@
         <v>95</v>
       </c>
       <c r="E92" t="s">
-        <v>889</v>
+        <v>903</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4865,7 +4907,7 @@
         <v>96</v>
       </c>
       <c r="E93" t="s">
-        <v>912</v>
+        <v>926</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4882,7 +4924,7 @@
         <v>97</v>
       </c>
       <c r="E94" t="s">
-        <v>929</v>
+        <v>943</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4899,7 +4941,7 @@
         <v>98</v>
       </c>
       <c r="E95" t="s">
-        <v>894</v>
+        <v>908</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4916,7 +4958,7 @@
         <v>99</v>
       </c>
       <c r="E96" t="s">
-        <v>912</v>
+        <v>926</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4933,7 +4975,7 @@
         <v>100</v>
       </c>
       <c r="E97" t="s">
-        <v>912</v>
+        <v>926</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4950,7 +4992,7 @@
         <v>101</v>
       </c>
       <c r="E98" t="s">
-        <v>889</v>
+        <v>903</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4967,7 +5009,7 @@
         <v>102</v>
       </c>
       <c r="E99" t="s">
-        <v>890</v>
+        <v>904</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4984,7 +5026,7 @@
         <v>103</v>
       </c>
       <c r="E100" t="s">
-        <v>912</v>
+        <v>926</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -5001,7 +5043,7 @@
         <v>104</v>
       </c>
       <c r="E101" t="s">
-        <v>889</v>
+        <v>903</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -5018,7 +5060,7 @@
         <v>105</v>
       </c>
       <c r="E102" t="s">
-        <v>894</v>
+        <v>908</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -5035,7 +5077,7 @@
         <v>106</v>
       </c>
       <c r="E103" t="s">
-        <v>894</v>
+        <v>908</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -5052,7 +5094,7 @@
         <v>107</v>
       </c>
       <c r="E104" t="s">
-        <v>911</v>
+        <v>925</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -5069,7 +5111,7 @@
         <v>108</v>
       </c>
       <c r="E105" t="s">
-        <v>929</v>
+        <v>943</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -5086,7 +5128,7 @@
         <v>109</v>
       </c>
       <c r="E106" t="s">
-        <v>890</v>
+        <v>904</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -5103,7 +5145,7 @@
         <v>110</v>
       </c>
       <c r="E107" t="s">
-        <v>890</v>
+        <v>904</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -5120,7 +5162,7 @@
         <v>111</v>
       </c>
       <c r="E108" t="s">
-        <v>894</v>
+        <v>908</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -5137,7 +5179,7 @@
         <v>112</v>
       </c>
       <c r="E109" t="s">
-        <v>912</v>
+        <v>926</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -5154,7 +5196,7 @@
         <v>113</v>
       </c>
       <c r="E110" t="s">
-        <v>912</v>
+        <v>926</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -5171,7 +5213,7 @@
         <v>114</v>
       </c>
       <c r="E111" t="s">
-        <v>890</v>
+        <v>904</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -5188,7 +5230,7 @@
         <v>115</v>
       </c>
       <c r="E112" t="s">
-        <v>893</v>
+        <v>907</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -5205,7 +5247,7 @@
         <v>116</v>
       </c>
       <c r="E113" t="s">
-        <v>890</v>
+        <v>904</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -5222,7 +5264,7 @@
         <v>117</v>
       </c>
       <c r="E114" t="s">
-        <v>929</v>
+        <v>943</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -5239,7 +5281,7 @@
         <v>118</v>
       </c>
       <c r="E115" t="s">
-        <v>894</v>
+        <v>908</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -5256,7 +5298,7 @@
         <v>119</v>
       </c>
       <c r="E116" t="s">
-        <v>912</v>
+        <v>926</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -5273,7 +5315,7 @@
         <v>120</v>
       </c>
       <c r="E117" t="s">
-        <v>929</v>
+        <v>943</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -5290,7 +5332,7 @@
         <v>121</v>
       </c>
       <c r="E118" t="s">
-        <v>911</v>
+        <v>925</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -5307,7 +5349,7 @@
         <v>122</v>
       </c>
       <c r="E119" t="s">
-        <v>910</v>
+        <v>924</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -5324,7 +5366,7 @@
         <v>123</v>
       </c>
       <c r="E120" t="s">
-        <v>930</v>
+        <v>944</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -5341,7 +5383,7 @@
         <v>124</v>
       </c>
       <c r="E121" t="s">
-        <v>923</v>
+        <v>937</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -5358,7 +5400,7 @@
         <v>125</v>
       </c>
       <c r="E122" t="s">
-        <v>907</v>
+        <v>921</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -5375,7 +5417,7 @@
         <v>126</v>
       </c>
       <c r="E123" t="s">
-        <v>904</v>
+        <v>918</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -5392,7 +5434,7 @@
         <v>127</v>
       </c>
       <c r="E124" t="s">
-        <v>900</v>
+        <v>914</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -5409,7 +5451,7 @@
         <v>128</v>
       </c>
       <c r="E125" t="s">
-        <v>931</v>
+        <v>945</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -5426,7 +5468,7 @@
         <v>129</v>
       </c>
       <c r="E126" t="s">
-        <v>931</v>
+        <v>945</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -5443,7 +5485,7 @@
         <v>130</v>
       </c>
       <c r="E127" t="s">
-        <v>932</v>
+        <v>946</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -5460,7 +5502,7 @@
         <v>131</v>
       </c>
       <c r="E128" t="s">
-        <v>933</v>
+        <v>947</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -5477,7 +5519,7 @@
         <v>132</v>
       </c>
       <c r="E129" t="s">
-        <v>931</v>
+        <v>945</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -5494,7 +5536,7 @@
         <v>133</v>
       </c>
       <c r="E130" t="s">
-        <v>934</v>
+        <v>948</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -5511,7 +5553,7 @@
         <v>134</v>
       </c>
       <c r="E131" t="s">
-        <v>900</v>
+        <v>914</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -5528,7 +5570,7 @@
         <v>135</v>
       </c>
       <c r="E132" t="s">
-        <v>899</v>
+        <v>913</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -5545,7 +5587,7 @@
         <v>136</v>
       </c>
       <c r="E133" t="s">
-        <v>899</v>
+        <v>913</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -5562,7 +5604,7 @@
         <v>137</v>
       </c>
       <c r="E134" t="s">
-        <v>927</v>
+        <v>941</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -5579,7 +5621,7 @@
         <v>138</v>
       </c>
       <c r="E135" t="s">
-        <v>925</v>
+        <v>939</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -5596,7 +5638,7 @@
         <v>139</v>
       </c>
       <c r="E136" t="s">
-        <v>926</v>
+        <v>940</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -5613,7 +5655,7 @@
         <v>140</v>
       </c>
       <c r="E137" t="s">
-        <v>923</v>
+        <v>937</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -5630,7 +5672,7 @@
         <v>141</v>
       </c>
       <c r="E138" t="s">
-        <v>930</v>
+        <v>944</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -5647,7 +5689,7 @@
         <v>142</v>
       </c>
       <c r="E139" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -5664,7 +5706,7 @@
         <v>143</v>
       </c>
       <c r="E140" t="s">
-        <v>930</v>
+        <v>944</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -5681,7 +5723,7 @@
         <v>144</v>
       </c>
       <c r="E141" t="s">
-        <v>923</v>
+        <v>937</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -5698,7 +5740,7 @@
         <v>145</v>
       </c>
       <c r="E142" t="s">
-        <v>908</v>
+        <v>922</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -5715,7 +5757,7 @@
         <v>146</v>
       </c>
       <c r="E143" t="s">
-        <v>924</v>
+        <v>938</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -5732,7 +5774,7 @@
         <v>147</v>
       </c>
       <c r="E144" t="s">
-        <v>907</v>
+        <v>921</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -5749,7 +5791,7 @@
         <v>148</v>
       </c>
       <c r="E145" t="s">
-        <v>897</v>
+        <v>911</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -5766,7 +5808,7 @@
         <v>149</v>
       </c>
       <c r="E146" t="s">
-        <v>923</v>
+        <v>937</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -5783,7 +5825,7 @@
         <v>150</v>
       </c>
       <c r="E147" t="s">
-        <v>935</v>
+        <v>949</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -5800,7 +5842,7 @@
         <v>151</v>
       </c>
       <c r="E148" t="s">
-        <v>909</v>
+        <v>923</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -5817,7 +5859,7 @@
         <v>152</v>
       </c>
       <c r="E149" t="s">
-        <v>923</v>
+        <v>937</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -5834,7 +5876,7 @@
         <v>153</v>
       </c>
       <c r="E150" t="s">
-        <v>930</v>
+        <v>944</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -5851,7 +5893,7 @@
         <v>154</v>
       </c>
       <c r="E151" t="s">
-        <v>909</v>
+        <v>923</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -5868,7 +5910,7 @@
         <v>155</v>
       </c>
       <c r="E152" t="s">
-        <v>908</v>
+        <v>922</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -5885,7 +5927,7 @@
         <v>156</v>
       </c>
       <c r="E153" t="s">
-        <v>926</v>
+        <v>940</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -5902,7 +5944,7 @@
         <v>157</v>
       </c>
       <c r="E154" t="s">
-        <v>908</v>
+        <v>922</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -5919,7 +5961,7 @@
         <v>158</v>
       </c>
       <c r="E155" t="s">
-        <v>898</v>
+        <v>912</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -5936,7 +5978,7 @@
         <v>159</v>
       </c>
       <c r="E156" t="s">
-        <v>898</v>
+        <v>912</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -5953,7 +5995,7 @@
         <v>160</v>
       </c>
       <c r="E157" t="s">
-        <v>902</v>
+        <v>916</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -5970,7 +6012,7 @@
         <v>161</v>
       </c>
       <c r="E158" t="s">
-        <v>902</v>
+        <v>916</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -5987,7 +6029,7 @@
         <v>162</v>
       </c>
       <c r="E159" t="s">
-        <v>936</v>
+        <v>950</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -6004,7 +6046,7 @@
         <v>163</v>
       </c>
       <c r="E160" t="s">
-        <v>936</v>
+        <v>950</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -6021,7 +6063,7 @@
         <v>164</v>
       </c>
       <c r="E161" t="s">
-        <v>937</v>
+        <v>951</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -6038,7 +6080,7 @@
         <v>165</v>
       </c>
       <c r="E162" t="s">
-        <v>934</v>
+        <v>948</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -6055,7 +6097,7 @@
         <v>166</v>
       </c>
       <c r="E163" t="s">
-        <v>936</v>
+        <v>950</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -6072,7 +6114,7 @@
         <v>167</v>
       </c>
       <c r="E164" t="s">
-        <v>937</v>
+        <v>951</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -6089,7 +6131,7 @@
         <v>168</v>
       </c>
       <c r="E165" t="s">
-        <v>902</v>
+        <v>916</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -6106,7 +6148,7 @@
         <v>169</v>
       </c>
       <c r="E166" t="s">
-        <v>900</v>
+        <v>914</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -6123,7 +6165,7 @@
         <v>170</v>
       </c>
       <c r="E167" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -6140,7 +6182,7 @@
         <v>171</v>
       </c>
       <c r="E168" t="s">
-        <v>898</v>
+        <v>912</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -6157,7 +6199,7 @@
         <v>172</v>
       </c>
       <c r="E169" t="s">
-        <v>927</v>
+        <v>941</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -6174,7 +6216,7 @@
         <v>173</v>
       </c>
       <c r="E170" t="s">
-        <v>907</v>
+        <v>921</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -6191,7 +6233,7 @@
         <v>174</v>
       </c>
       <c r="E171" t="s">
-        <v>908</v>
+        <v>922</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -6208,7 +6250,7 @@
         <v>175</v>
       </c>
       <c r="E172" t="s">
-        <v>926</v>
+        <v>940</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -6225,7 +6267,7 @@
         <v>176</v>
       </c>
       <c r="E173" t="s">
-        <v>926</v>
+        <v>940</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -6242,7 +6284,7 @@
         <v>177</v>
       </c>
       <c r="E174" t="s">
-        <v>908</v>
+        <v>922</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -6259,7 +6301,7 @@
         <v>178</v>
       </c>
       <c r="E175" t="s">
-        <v>908</v>
+        <v>922</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -6276,7 +6318,7 @@
         <v>179</v>
       </c>
       <c r="E176" t="s">
-        <v>909</v>
+        <v>923</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -6293,7 +6335,7 @@
         <v>180</v>
       </c>
       <c r="E177" t="s">
-        <v>924</v>
+        <v>938</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -6310,7 +6352,7 @@
         <v>181</v>
       </c>
       <c r="E178" t="s">
-        <v>926</v>
+        <v>940</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -6327,7 +6369,7 @@
         <v>182</v>
       </c>
       <c r="E179" t="s">
-        <v>909</v>
+        <v>923</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -6344,7 +6386,7 @@
         <v>183</v>
       </c>
       <c r="E180" t="s">
-        <v>924</v>
+        <v>938</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -6361,7 +6403,7 @@
         <v>184</v>
       </c>
       <c r="E181" t="s">
-        <v>908</v>
+        <v>922</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -6378,7 +6420,7 @@
         <v>185</v>
       </c>
       <c r="E182" t="s">
-        <v>924</v>
+        <v>938</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -6395,7 +6437,7 @@
         <v>186</v>
       </c>
       <c r="E183" t="s">
-        <v>925</v>
+        <v>939</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -6412,7 +6454,7 @@
         <v>187</v>
       </c>
       <c r="E184" t="s">
-        <v>924</v>
+        <v>938</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -6429,7 +6471,7 @@
         <v>188</v>
       </c>
       <c r="E185" t="s">
-        <v>924</v>
+        <v>938</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -6446,7 +6488,7 @@
         <v>189</v>
       </c>
       <c r="E186" t="s">
-        <v>925</v>
+        <v>939</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -6463,7 +6505,7 @@
         <v>190</v>
       </c>
       <c r="E187" t="s">
-        <v>926</v>
+        <v>940</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -6480,7 +6522,7 @@
         <v>191</v>
       </c>
       <c r="E188" t="s">
-        <v>926</v>
+        <v>940</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -6497,7 +6539,7 @@
         <v>192</v>
       </c>
       <c r="E189" t="s">
-        <v>909</v>
+        <v>923</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -6514,7 +6556,7 @@
         <v>193</v>
       </c>
       <c r="E190" t="s">
-        <v>908</v>
+        <v>922</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -6531,7 +6573,7 @@
         <v>194</v>
       </c>
       <c r="E191" t="s">
-        <v>908</v>
+        <v>922</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -6548,7 +6590,7 @@
         <v>195</v>
       </c>
       <c r="E192" t="s">
-        <v>924</v>
+        <v>938</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -6565,7 +6607,7 @@
         <v>196</v>
       </c>
       <c r="E193" t="s">
-        <v>908</v>
+        <v>922</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -6582,7 +6624,7 @@
         <v>197</v>
       </c>
       <c r="E194" t="s">
-        <v>926</v>
+        <v>940</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -6599,7 +6641,7 @@
         <v>198</v>
       </c>
       <c r="E195" t="s">
-        <v>909</v>
+        <v>923</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -6616,7 +6658,7 @@
         <v>199</v>
       </c>
       <c r="E196" t="s">
-        <v>909</v>
+        <v>923</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -6633,7 +6675,7 @@
         <v>200</v>
       </c>
       <c r="E197" t="s">
-        <v>897</v>
+        <v>911</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -6650,7 +6692,7 @@
         <v>201</v>
       </c>
       <c r="E198" t="s">
-        <v>930</v>
+        <v>944</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -6667,7 +6709,7 @@
         <v>202</v>
       </c>
       <c r="E199" t="s">
-        <v>923</v>
+        <v>937</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -6684,7 +6726,7 @@
         <v>203</v>
       </c>
       <c r="E200" t="s">
-        <v>922</v>
+        <v>936</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -6701,7 +6743,7 @@
         <v>204</v>
       </c>
       <c r="E201" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -6718,7 +6760,7 @@
         <v>205</v>
       </c>
       <c r="E202" t="s">
-        <v>930</v>
+        <v>944</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -6735,7 +6777,7 @@
         <v>206</v>
       </c>
       <c r="E203" t="s">
-        <v>930</v>
+        <v>944</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -6752,7 +6794,7 @@
         <v>207</v>
       </c>
       <c r="E204" t="s">
-        <v>935</v>
+        <v>949</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -6769,7 +6811,7 @@
         <v>208</v>
       </c>
       <c r="E205" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -6786,7 +6828,7 @@
         <v>209</v>
       </c>
       <c r="E206" t="s">
-        <v>922</v>
+        <v>936</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -6803,7 +6845,7 @@
         <v>210</v>
       </c>
       <c r="E207" t="s">
-        <v>930</v>
+        <v>944</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -6820,7 +6862,7 @@
         <v>211</v>
       </c>
       <c r="E208" t="s">
-        <v>895</v>
+        <v>909</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -6837,7 +6879,7 @@
         <v>212</v>
       </c>
       <c r="E209" t="s">
-        <v>935</v>
+        <v>949</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -6854,7 +6896,7 @@
         <v>213</v>
       </c>
       <c r="E210" t="s">
-        <v>928</v>
+        <v>942</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -6871,7 +6913,7 @@
         <v>214</v>
       </c>
       <c r="E211" t="s">
-        <v>928</v>
+        <v>942</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -6888,7 +6930,7 @@
         <v>215</v>
       </c>
       <c r="E212" t="s">
-        <v>911</v>
+        <v>925</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -6905,7 +6947,7 @@
         <v>216</v>
       </c>
       <c r="E213" t="s">
-        <v>911</v>
+        <v>925</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -6922,7 +6964,7 @@
         <v>217</v>
       </c>
       <c r="E214" t="s">
-        <v>894</v>
+        <v>908</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -6939,7 +6981,7 @@
         <v>218</v>
       </c>
       <c r="E215" t="s">
-        <v>912</v>
+        <v>926</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -6956,7 +6998,7 @@
         <v>219</v>
       </c>
       <c r="E216" t="s">
-        <v>929</v>
+        <v>943</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -6973,7 +7015,7 @@
         <v>220</v>
       </c>
       <c r="E217" t="s">
-        <v>889</v>
+        <v>903</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -6990,7 +7032,7 @@
         <v>221</v>
       </c>
       <c r="E218" t="s">
-        <v>889</v>
+        <v>903</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -7007,7 +7049,7 @@
         <v>222</v>
       </c>
       <c r="E219" t="s">
-        <v>888</v>
+        <v>902</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -7024,7 +7066,7 @@
         <v>223</v>
       </c>
       <c r="E220" t="s">
-        <v>888</v>
+        <v>902</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -7041,7 +7083,7 @@
         <v>224</v>
       </c>
       <c r="E221" t="s">
-        <v>888</v>
+        <v>902</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -7058,7 +7100,7 @@
         <v>225</v>
       </c>
       <c r="E222" t="s">
-        <v>890</v>
+        <v>904</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -7075,7 +7117,7 @@
         <v>226</v>
       </c>
       <c r="E223" t="s">
-        <v>888</v>
+        <v>902</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -7092,7 +7134,7 @@
         <v>227</v>
       </c>
       <c r="E224" t="s">
-        <v>888</v>
+        <v>902</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -7109,7 +7151,7 @@
         <v>228</v>
       </c>
       <c r="E225" t="s">
-        <v>888</v>
+        <v>902</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -7126,7 +7168,7 @@
         <v>229</v>
       </c>
       <c r="E226" t="s">
-        <v>893</v>
+        <v>907</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -7143,7 +7185,7 @@
         <v>230</v>
       </c>
       <c r="E227" t="s">
-        <v>893</v>
+        <v>907</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -7160,7 +7202,7 @@
         <v>231</v>
       </c>
       <c r="E228" t="s">
-        <v>892</v>
+        <v>906</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -7177,7 +7219,7 @@
         <v>232</v>
       </c>
       <c r="E229" t="s">
-        <v>888</v>
+        <v>902</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -7194,7 +7236,7 @@
         <v>233</v>
       </c>
       <c r="E230" t="s">
-        <v>890</v>
+        <v>904</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -7211,7 +7253,7 @@
         <v>234</v>
       </c>
       <c r="E231" t="s">
-        <v>888</v>
+        <v>902</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -7228,7 +7270,7 @@
         <v>235</v>
       </c>
       <c r="E232" t="s">
-        <v>888</v>
+        <v>902</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -7245,7 +7287,7 @@
         <v>236</v>
       </c>
       <c r="E233" t="s">
-        <v>888</v>
+        <v>902</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -7262,7 +7304,7 @@
         <v>237</v>
       </c>
       <c r="E234" t="s">
-        <v>888</v>
+        <v>902</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -7279,7 +7321,7 @@
         <v>238</v>
       </c>
       <c r="E235" t="s">
-        <v>890</v>
+        <v>904</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -7296,7 +7338,7 @@
         <v>239</v>
       </c>
       <c r="E236" t="s">
-        <v>888</v>
+        <v>902</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -7313,7 +7355,7 @@
         <v>240</v>
       </c>
       <c r="E237" t="s">
-        <v>888</v>
+        <v>902</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -7330,7 +7372,7 @@
         <v>241</v>
       </c>
       <c r="E238" t="s">
-        <v>888</v>
+        <v>902</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -7347,7 +7389,7 @@
         <v>242</v>
       </c>
       <c r="E239" t="s">
-        <v>889</v>
+        <v>903</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -7364,7 +7406,7 @@
         <v>243</v>
       </c>
       <c r="E240" t="s">
-        <v>890</v>
+        <v>904</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -7381,7 +7423,7 @@
         <v>244</v>
       </c>
       <c r="E241" t="s">
-        <v>888</v>
+        <v>902</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -7398,7 +7440,7 @@
         <v>245</v>
       </c>
       <c r="E242" t="s">
-        <v>893</v>
+        <v>907</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -7415,7 +7457,7 @@
         <v>246</v>
       </c>
       <c r="E243" t="s">
-        <v>888</v>
+        <v>902</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -7432,7 +7474,7 @@
         <v>247</v>
       </c>
       <c r="E244" t="s">
-        <v>893</v>
+        <v>907</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -7449,7 +7491,7 @@
         <v>248</v>
       </c>
       <c r="E245" t="s">
-        <v>891</v>
+        <v>905</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -7466,7 +7508,7 @@
         <v>249</v>
       </c>
       <c r="E246" t="s">
-        <v>891</v>
+        <v>905</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -7483,7 +7525,7 @@
         <v>250</v>
       </c>
       <c r="E247" t="s">
-        <v>893</v>
+        <v>907</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -7500,7 +7542,7 @@
         <v>251</v>
       </c>
       <c r="E248" t="s">
-        <v>893</v>
+        <v>907</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -7517,7 +7559,7 @@
         <v>252</v>
       </c>
       <c r="E249" t="s">
-        <v>891</v>
+        <v>905</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -7534,7 +7576,7 @@
         <v>253</v>
       </c>
       <c r="E250" t="s">
-        <v>887</v>
+        <v>901</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -7551,7 +7593,7 @@
         <v>254</v>
       </c>
       <c r="E251" t="s">
-        <v>887</v>
+        <v>901</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -7568,7 +7610,7 @@
         <v>255</v>
       </c>
       <c r="E252" t="s">
-        <v>887</v>
+        <v>901</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -7585,7 +7627,7 @@
         <v>256</v>
       </c>
       <c r="E253" t="s">
-        <v>887</v>
+        <v>901</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -7602,7 +7644,7 @@
         <v>257</v>
       </c>
       <c r="E254" t="s">
-        <v>887</v>
+        <v>901</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -7619,7 +7661,7 @@
         <v>258</v>
       </c>
       <c r="E255" t="s">
-        <v>887</v>
+        <v>901</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -7636,7 +7678,7 @@
         <v>259</v>
       </c>
       <c r="E256" t="s">
-        <v>887</v>
+        <v>901</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -7653,7 +7695,7 @@
         <v>260</v>
       </c>
       <c r="E257" t="s">
-        <v>887</v>
+        <v>901</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -7670,7 +7712,7 @@
         <v>261</v>
       </c>
       <c r="E258" t="s">
-        <v>887</v>
+        <v>901</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -7687,7 +7729,7 @@
         <v>262</v>
       </c>
       <c r="E259" t="s">
-        <v>891</v>
+        <v>905</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -7704,7 +7746,7 @@
         <v>263</v>
       </c>
       <c r="E260" t="s">
-        <v>891</v>
+        <v>905</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -7721,7 +7763,7 @@
         <v>264</v>
       </c>
       <c r="E261" t="s">
-        <v>891</v>
+        <v>905</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -7738,7 +7780,7 @@
         <v>265</v>
       </c>
       <c r="E262" t="s">
-        <v>893</v>
+        <v>907</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -7755,7 +7797,7 @@
         <v>266</v>
       </c>
       <c r="E263" t="s">
-        <v>893</v>
+        <v>907</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -7772,7 +7814,7 @@
         <v>267</v>
       </c>
       <c r="E264" t="s">
-        <v>891</v>
+        <v>905</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -7789,7 +7831,7 @@
         <v>268</v>
       </c>
       <c r="E265" t="s">
-        <v>891</v>
+        <v>905</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -7806,7 +7848,7 @@
         <v>269</v>
       </c>
       <c r="E266" t="s">
-        <v>890</v>
+        <v>904</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -7823,7 +7865,7 @@
         <v>270</v>
       </c>
       <c r="E267" t="s">
-        <v>912</v>
+        <v>926</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -7840,7 +7882,7 @@
         <v>271</v>
       </c>
       <c r="E268" t="s">
-        <v>911</v>
+        <v>925</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -7857,7 +7899,7 @@
         <v>272</v>
       </c>
       <c r="E269" t="s">
-        <v>928</v>
+        <v>942</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -7874,7 +7916,7 @@
         <v>273</v>
       </c>
       <c r="E270" t="s">
-        <v>935</v>
+        <v>949</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -7891,7 +7933,7 @@
         <v>274</v>
       </c>
       <c r="E271" t="s">
-        <v>922</v>
+        <v>936</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -7908,7 +7950,7 @@
         <v>275</v>
       </c>
       <c r="E272" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -7925,7 +7967,7 @@
         <v>276</v>
       </c>
       <c r="E273" t="s">
-        <v>930</v>
+        <v>944</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -7942,7 +7984,7 @@
         <v>277</v>
       </c>
       <c r="E274" t="s">
-        <v>909</v>
+        <v>923</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -7959,7 +8001,7 @@
         <v>278</v>
       </c>
       <c r="E275" t="s">
-        <v>908</v>
+        <v>922</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -7976,7 +8018,7 @@
         <v>279</v>
       </c>
       <c r="E276" t="s">
-        <v>925</v>
+        <v>939</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -7993,7 +8035,7 @@
         <v>280</v>
       </c>
       <c r="E277" t="s">
-        <v>898</v>
+        <v>912</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -8010,7 +8052,7 @@
         <v>281</v>
       </c>
       <c r="E278" t="s">
-        <v>925</v>
+        <v>939</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -8027,7 +8069,7 @@
         <v>282</v>
       </c>
       <c r="E279" t="s">
-        <v>925</v>
+        <v>939</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -8044,7 +8086,7 @@
         <v>283</v>
       </c>
       <c r="E280" t="s">
-        <v>927</v>
+        <v>941</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -8061,7 +8103,7 @@
         <v>284</v>
       </c>
       <c r="E281" t="s">
-        <v>925</v>
+        <v>939</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -8078,7 +8120,7 @@
         <v>285</v>
       </c>
       <c r="E282" t="s">
-        <v>925</v>
+        <v>939</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -8095,7 +8137,7 @@
         <v>286</v>
       </c>
       <c r="E283" t="s">
-        <v>925</v>
+        <v>939</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -8112,7 +8154,7 @@
         <v>287</v>
       </c>
       <c r="E284" t="s">
-        <v>927</v>
+        <v>941</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -8129,7 +8171,7 @@
         <v>288</v>
       </c>
       <c r="E285" t="s">
-        <v>898</v>
+        <v>912</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -8146,7 +8188,7 @@
         <v>289</v>
       </c>
       <c r="E286" t="s">
-        <v>927</v>
+        <v>941</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -8163,7 +8205,7 @@
         <v>290</v>
       </c>
       <c r="E287" t="s">
-        <v>907</v>
+        <v>921</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -8180,7 +8222,7 @@
         <v>291</v>
       </c>
       <c r="E288" t="s">
-        <v>927</v>
+        <v>941</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -8197,7 +8239,7 @@
         <v>292</v>
       </c>
       <c r="E289" t="s">
-        <v>927</v>
+        <v>941</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -8214,7 +8256,7 @@
         <v>293</v>
       </c>
       <c r="E290" t="s">
-        <v>907</v>
+        <v>921</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -8231,7 +8273,7 @@
         <v>294</v>
       </c>
       <c r="E291" t="s">
-        <v>924</v>
+        <v>938</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -8248,7 +8290,7 @@
         <v>295</v>
       </c>
       <c r="E292" t="s">
-        <v>907</v>
+        <v>921</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -8265,7 +8307,7 @@
         <v>296</v>
       </c>
       <c r="E293" t="s">
-        <v>924</v>
+        <v>938</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -8282,7 +8324,7 @@
         <v>297</v>
       </c>
       <c r="E294" t="s">
-        <v>924</v>
+        <v>938</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -8299,7 +8341,7 @@
         <v>298</v>
       </c>
       <c r="E295" t="s">
-        <v>924</v>
+        <v>938</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -8316,7 +8358,7 @@
         <v>299</v>
       </c>
       <c r="E296" t="s">
-        <v>926</v>
+        <v>940</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -8333,7 +8375,7 @@
         <v>300</v>
       </c>
       <c r="E297" t="s">
-        <v>926</v>
+        <v>940</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -8350,7 +8392,7 @@
         <v>301</v>
       </c>
       <c r="E298" t="s">
-        <v>908</v>
+        <v>922</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -8367,7 +8409,7 @@
         <v>302</v>
       </c>
       <c r="E299" t="s">
-        <v>926</v>
+        <v>940</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -8384,7 +8426,7 @@
         <v>303</v>
       </c>
       <c r="E300" t="s">
-        <v>897</v>
+        <v>911</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -8401,7 +8443,7 @@
         <v>304</v>
       </c>
       <c r="E301" t="s">
-        <v>923</v>
+        <v>937</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -8418,7 +8460,7 @@
         <v>305</v>
       </c>
       <c r="E302" t="s">
-        <v>922</v>
+        <v>936</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -8435,7 +8477,7 @@
         <v>306</v>
       </c>
       <c r="E303" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -8452,7 +8494,7 @@
         <v>307</v>
       </c>
       <c r="E304" t="s">
-        <v>922</v>
+        <v>936</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -8469,7 +8511,7 @@
         <v>308</v>
       </c>
       <c r="E305" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -8486,7 +8528,7 @@
         <v>309</v>
       </c>
       <c r="E306" t="s">
-        <v>922</v>
+        <v>936</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -8503,7 +8545,7 @@
         <v>310</v>
       </c>
       <c r="E307" t="s">
-        <v>922</v>
+        <v>936</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -8520,7 +8562,7 @@
         <v>311</v>
       </c>
       <c r="E308" t="s">
-        <v>935</v>
+        <v>949</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -8537,7 +8579,7 @@
         <v>312</v>
       </c>
       <c r="E309" t="s">
-        <v>935</v>
+        <v>949</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -8554,7 +8596,7 @@
         <v>313</v>
       </c>
       <c r="E310" t="s">
-        <v>935</v>
+        <v>949</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -8571,7 +8613,7 @@
         <v>314</v>
       </c>
       <c r="E311" t="s">
-        <v>928</v>
+        <v>942</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -8588,7 +8630,7 @@
         <v>315</v>
       </c>
       <c r="E312" t="s">
-        <v>935</v>
+        <v>949</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -8605,7 +8647,7 @@
         <v>316</v>
       </c>
       <c r="E313" t="s">
-        <v>922</v>
+        <v>936</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -8622,7 +8664,7 @@
         <v>317</v>
       </c>
       <c r="E314" t="s">
-        <v>930</v>
+        <v>944</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -8639,7 +8681,7 @@
         <v>318</v>
       </c>
       <c r="E315" t="s">
-        <v>923</v>
+        <v>937</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -8656,7 +8698,7 @@
         <v>319</v>
       </c>
       <c r="E316" t="s">
-        <v>930</v>
+        <v>944</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -8673,7 +8715,7 @@
         <v>320</v>
       </c>
       <c r="E317" t="s">
-        <v>930</v>
+        <v>944</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -8690,7 +8732,7 @@
         <v>321</v>
       </c>
       <c r="E318" t="s">
-        <v>930</v>
+        <v>944</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -8707,7 +8749,7 @@
         <v>322</v>
       </c>
       <c r="E319" t="s">
-        <v>909</v>
+        <v>923</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -8724,7 +8766,7 @@
         <v>323</v>
       </c>
       <c r="E320" t="s">
-        <v>908</v>
+        <v>922</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -8741,7 +8783,7 @@
         <v>324</v>
       </c>
       <c r="E321" t="s">
-        <v>908</v>
+        <v>922</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -8758,7 +8800,7 @@
         <v>325</v>
       </c>
       <c r="E322" t="s">
-        <v>925</v>
+        <v>939</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -8775,7 +8817,7 @@
         <v>326</v>
       </c>
       <c r="E323" t="s">
-        <v>927</v>
+        <v>941</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -8792,7 +8834,7 @@
         <v>327</v>
       </c>
       <c r="E324" t="s">
-        <v>902</v>
+        <v>916</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -8809,7 +8851,7 @@
         <v>328</v>
       </c>
       <c r="E325" t="s">
-        <v>938</v>
+        <v>952</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -8826,7 +8868,7 @@
         <v>329</v>
       </c>
       <c r="E326" t="s">
-        <v>939</v>
+        <v>953</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -8843,7 +8885,7 @@
         <v>330</v>
       </c>
       <c r="E327" t="s">
-        <v>939</v>
+        <v>953</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -8860,7 +8902,7 @@
         <v>331</v>
       </c>
       <c r="E328" t="s">
-        <v>940</v>
+        <v>954</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -8877,7 +8919,7 @@
         <v>332</v>
       </c>
       <c r="E329" t="s">
-        <v>941</v>
+        <v>955</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -8894,7 +8936,7 @@
         <v>333</v>
       </c>
       <c r="E330" t="s">
-        <v>942</v>
+        <v>956</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -8911,7 +8953,7 @@
         <v>334</v>
       </c>
       <c r="E331" t="s">
-        <v>941</v>
+        <v>955</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -8928,7 +8970,7 @@
         <v>335</v>
       </c>
       <c r="E332" t="s">
-        <v>940</v>
+        <v>954</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -8945,7 +8987,7 @@
         <v>336</v>
       </c>
       <c r="E333" t="s">
-        <v>943</v>
+        <v>957</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -8962,7 +9004,7 @@
         <v>337</v>
       </c>
       <c r="E334" t="s">
-        <v>943</v>
+        <v>957</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -8979,7 +9021,7 @@
         <v>338</v>
       </c>
       <c r="E335" t="s">
-        <v>943</v>
+        <v>957</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -8996,7 +9038,7 @@
         <v>339</v>
       </c>
       <c r="E336" t="s">
-        <v>944</v>
+        <v>958</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -9013,7 +9055,7 @@
         <v>340</v>
       </c>
       <c r="E337" t="s">
-        <v>945</v>
+        <v>959</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -9030,7 +9072,7 @@
         <v>341</v>
       </c>
       <c r="E338" t="s">
-        <v>903</v>
+        <v>917</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -9047,7 +9089,7 @@
         <v>342</v>
       </c>
       <c r="E339" t="s">
-        <v>946</v>
+        <v>960</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -9064,7 +9106,7 @@
         <v>343</v>
       </c>
       <c r="E340" t="s">
-        <v>947</v>
+        <v>961</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -9081,7 +9123,7 @@
         <v>344</v>
       </c>
       <c r="E341" t="s">
-        <v>946</v>
+        <v>960</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -9098,7 +9140,7 @@
         <v>345</v>
       </c>
       <c r="E342" t="s">
-        <v>931</v>
+        <v>945</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -9115,7 +9157,7 @@
         <v>346</v>
       </c>
       <c r="E343" t="s">
-        <v>947</v>
+        <v>961</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -9132,7 +9174,7 @@
         <v>347</v>
       </c>
       <c r="E344" t="s">
-        <v>948</v>
+        <v>962</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -9149,7 +9191,7 @@
         <v>348</v>
       </c>
       <c r="E345" t="s">
-        <v>948</v>
+        <v>962</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -9166,7 +9208,7 @@
         <v>349</v>
       </c>
       <c r="E346" t="s">
-        <v>947</v>
+        <v>961</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -9183,7 +9225,7 @@
         <v>350</v>
       </c>
       <c r="E347" t="s">
-        <v>946</v>
+        <v>960</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -9200,7 +9242,7 @@
         <v>351</v>
       </c>
       <c r="E348" t="s">
-        <v>948</v>
+        <v>962</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -9217,7 +9259,7 @@
         <v>352</v>
       </c>
       <c r="E349" t="s">
-        <v>948</v>
+        <v>962</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -9234,7 +9276,7 @@
         <v>353</v>
       </c>
       <c r="E350" t="s">
-        <v>933</v>
+        <v>947</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -9251,7 +9293,7 @@
         <v>354</v>
       </c>
       <c r="E351" t="s">
-        <v>947</v>
+        <v>961</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -9268,7 +9310,7 @@
         <v>355</v>
       </c>
       <c r="E352" t="s">
-        <v>931</v>
+        <v>945</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -9285,7 +9327,7 @@
         <v>356</v>
       </c>
       <c r="E353" t="s">
-        <v>938</v>
+        <v>952</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -9302,7 +9344,7 @@
         <v>357</v>
       </c>
       <c r="E354" t="s">
-        <v>937</v>
+        <v>951</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -9319,7 +9361,7 @@
         <v>358</v>
       </c>
       <c r="E355" t="s">
-        <v>938</v>
+        <v>952</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -9336,7 +9378,7 @@
         <v>359</v>
       </c>
       <c r="E356" t="s">
-        <v>936</v>
+        <v>950</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -9353,7 +9395,7 @@
         <v>360</v>
       </c>
       <c r="E357" t="s">
-        <v>937</v>
+        <v>951</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -9370,7 +9412,7 @@
         <v>361</v>
       </c>
       <c r="E358" t="s">
-        <v>901</v>
+        <v>915</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -9387,7 +9429,7 @@
         <v>362</v>
       </c>
       <c r="E359" t="s">
-        <v>901</v>
+        <v>915</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -9404,7 +9446,7 @@
         <v>363</v>
       </c>
       <c r="E360" t="s">
-        <v>901</v>
+        <v>915</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -9421,7 +9463,7 @@
         <v>364</v>
       </c>
       <c r="E361" t="s">
-        <v>904</v>
+        <v>918</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -9438,7 +9480,7 @@
         <v>365</v>
       </c>
       <c r="E362" t="s">
-        <v>904</v>
+        <v>918</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -9455,7 +9497,7 @@
         <v>366</v>
       </c>
       <c r="E363" t="s">
-        <v>906</v>
+        <v>920</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -9472,7 +9514,7 @@
         <v>367</v>
       </c>
       <c r="E364" t="s">
-        <v>906</v>
+        <v>920</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -9489,7 +9531,7 @@
         <v>368</v>
       </c>
       <c r="E365" t="s">
-        <v>898</v>
+        <v>912</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -9506,7 +9548,7 @@
         <v>369</v>
       </c>
       <c r="E366" t="s">
-        <v>927</v>
+        <v>941</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -9523,7 +9565,7 @@
         <v>370</v>
       </c>
       <c r="E367" t="s">
-        <v>925</v>
+        <v>939</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -9540,7 +9582,7 @@
         <v>371</v>
       </c>
       <c r="E368" t="s">
-        <v>899</v>
+        <v>913</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -9557,7 +9599,7 @@
         <v>372</v>
       </c>
       <c r="E369" t="s">
-        <v>925</v>
+        <v>939</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -9574,7 +9616,7 @@
         <v>373</v>
       </c>
       <c r="E370" t="s">
-        <v>927</v>
+        <v>941</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -9591,7 +9633,7 @@
         <v>374</v>
       </c>
       <c r="E371" t="s">
-        <v>907</v>
+        <v>921</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -9608,7 +9650,7 @@
         <v>375</v>
       </c>
       <c r="E372" t="s">
-        <v>925</v>
+        <v>939</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -9625,7 +9667,7 @@
         <v>376</v>
       </c>
       <c r="E373" t="s">
-        <v>927</v>
+        <v>941</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -9642,7 +9684,7 @@
         <v>377</v>
       </c>
       <c r="E374" t="s">
-        <v>925</v>
+        <v>939</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -9659,7 +9701,7 @@
         <v>378</v>
       </c>
       <c r="E375" t="s">
-        <v>925</v>
+        <v>939</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -9676,7 +9718,7 @@
         <v>379</v>
       </c>
       <c r="E376" t="s">
-        <v>907</v>
+        <v>921</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -9693,7 +9735,7 @@
         <v>380</v>
       </c>
       <c r="E377" t="s">
-        <v>907</v>
+        <v>921</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -9710,7 +9752,7 @@
         <v>381</v>
       </c>
       <c r="E378" t="s">
-        <v>926</v>
+        <v>940</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -9727,7 +9769,7 @@
         <v>382</v>
       </c>
       <c r="E379" t="s">
-        <v>924</v>
+        <v>938</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -9744,7 +9786,7 @@
         <v>383</v>
       </c>
       <c r="E380" t="s">
-        <v>924</v>
+        <v>938</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -9761,7 +9803,7 @@
         <v>384</v>
       </c>
       <c r="E381" t="s">
-        <v>927</v>
+        <v>941</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -9778,7 +9820,7 @@
         <v>385</v>
       </c>
       <c r="E382" t="s">
-        <v>925</v>
+        <v>939</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -9795,7 +9837,7 @@
         <v>386</v>
       </c>
       <c r="E383" t="s">
-        <v>927</v>
+        <v>941</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -9812,7 +9854,7 @@
         <v>387</v>
       </c>
       <c r="E384" t="s">
-        <v>925</v>
+        <v>939</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -9829,7 +9871,7 @@
         <v>388</v>
       </c>
       <c r="E385" t="s">
-        <v>927</v>
+        <v>941</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -9846,7 +9888,7 @@
         <v>389</v>
       </c>
       <c r="E386" t="s">
-        <v>906</v>
+        <v>920</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -9863,7 +9905,7 @@
         <v>390</v>
       </c>
       <c r="E387" t="s">
-        <v>906</v>
+        <v>920</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -9880,7 +9922,7 @@
         <v>391</v>
       </c>
       <c r="E388" t="s">
-        <v>906</v>
+        <v>920</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -9897,7 +9939,7 @@
         <v>392</v>
       </c>
       <c r="E389" t="s">
-        <v>936</v>
+        <v>950</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -9914,7 +9956,7 @@
         <v>393</v>
       </c>
       <c r="E390" t="s">
-        <v>933</v>
+        <v>947</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -9931,7 +9973,7 @@
         <v>394</v>
       </c>
       <c r="E391" t="s">
-        <v>947</v>
+        <v>961</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -9948,7 +9990,7 @@
         <v>395</v>
       </c>
       <c r="E392" t="s">
-        <v>948</v>
+        <v>962</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -9965,7 +10007,7 @@
         <v>396</v>
       </c>
       <c r="E393" t="s">
-        <v>946</v>
+        <v>960</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -9982,7 +10024,7 @@
         <v>397</v>
       </c>
       <c r="E394" t="s">
-        <v>933</v>
+        <v>947</v>
       </c>
     </row>
     <row r="395" spans="1:5">
@@ -9999,7 +10041,7 @@
         <v>398</v>
       </c>
       <c r="E395" t="s">
-        <v>933</v>
+        <v>947</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -10016,7 +10058,7 @@
         <v>399</v>
       </c>
       <c r="E396" t="s">
-        <v>933</v>
+        <v>947</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -10033,7 +10075,7 @@
         <v>400</v>
       </c>
       <c r="E397" t="s">
-        <v>938</v>
+        <v>952</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -10050,7 +10092,7 @@
         <v>401</v>
       </c>
       <c r="E398" t="s">
-        <v>933</v>
+        <v>947</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -10067,7 +10109,7 @@
         <v>402</v>
       </c>
       <c r="E399" t="s">
-        <v>931</v>
+        <v>945</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -10084,7 +10126,7 @@
         <v>403</v>
       </c>
       <c r="E400" t="s">
-        <v>931</v>
+        <v>945</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -10101,7 +10143,7 @@
         <v>404</v>
       </c>
       <c r="E401" t="s">
-        <v>938</v>
+        <v>952</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -10118,7 +10160,7 @@
         <v>405</v>
       </c>
       <c r="E402" t="s">
-        <v>933</v>
+        <v>947</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -10135,7 +10177,7 @@
         <v>406</v>
       </c>
       <c r="E403" t="s">
-        <v>933</v>
+        <v>947</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -10152,7 +10194,7 @@
         <v>407</v>
       </c>
       <c r="E404" t="s">
-        <v>938</v>
+        <v>952</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -10169,7 +10211,7 @@
         <v>408</v>
       </c>
       <c r="E405" t="s">
-        <v>931</v>
+        <v>945</v>
       </c>
     </row>
     <row r="406" spans="1:5">
@@ -10186,7 +10228,7 @@
         <v>409</v>
       </c>
       <c r="E406" t="s">
-        <v>947</v>
+        <v>961</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -10203,7 +10245,7 @@
         <v>410</v>
       </c>
       <c r="E407" t="s">
-        <v>903</v>
+        <v>917</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -10220,7 +10262,7 @@
         <v>411</v>
       </c>
       <c r="E408" t="s">
-        <v>944</v>
+        <v>958</v>
       </c>
     </row>
     <row r="409" spans="1:5">
@@ -10237,7 +10279,7 @@
         <v>412</v>
       </c>
       <c r="E409" t="s">
-        <v>949</v>
+        <v>963</v>
       </c>
     </row>
     <row r="410" spans="1:5">
@@ -10254,7 +10296,7 @@
         <v>413</v>
       </c>
       <c r="E410" t="s">
-        <v>940</v>
+        <v>954</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -10271,7 +10313,7 @@
         <v>414</v>
       </c>
       <c r="E411" t="s">
-        <v>950</v>
+        <v>964</v>
       </c>
     </row>
     <row r="412" spans="1:5">
@@ -10288,7 +10330,7 @@
         <v>415</v>
       </c>
       <c r="E412" t="s">
-        <v>942</v>
+        <v>956</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -10305,7 +10347,7 @@
         <v>416</v>
       </c>
       <c r="E413" t="s">
-        <v>951</v>
+        <v>965</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -10322,7 +10364,7 @@
         <v>417</v>
       </c>
       <c r="E414" t="s">
-        <v>952</v>
+        <v>966</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -10339,7 +10381,7 @@
         <v>418</v>
       </c>
       <c r="E415" t="s">
-        <v>953</v>
+        <v>967</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -10356,7 +10398,7 @@
         <v>419</v>
       </c>
       <c r="E416" t="s">
-        <v>954</v>
+        <v>968</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -10373,7 +10415,7 @@
         <v>420</v>
       </c>
       <c r="E417" t="s">
-        <v>954</v>
+        <v>968</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -10390,7 +10432,7 @@
         <v>421</v>
       </c>
       <c r="E418" t="s">
-        <v>955</v>
+        <v>969</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -10407,7 +10449,7 @@
         <v>422</v>
       </c>
       <c r="E419" t="s">
-        <v>956</v>
+        <v>970</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -10424,7 +10466,7 @@
         <v>423</v>
       </c>
       <c r="E420" t="s">
-        <v>957</v>
+        <v>971</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -10441,7 +10483,7 @@
         <v>424</v>
       </c>
       <c r="E421" t="s">
-        <v>957</v>
+        <v>971</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -10458,7 +10500,7 @@
         <v>425</v>
       </c>
       <c r="E422" t="s">
-        <v>956</v>
+        <v>970</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -10475,7 +10517,7 @@
         <v>426</v>
       </c>
       <c r="E423" t="s">
-        <v>956</v>
+        <v>970</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -10492,7 +10534,7 @@
         <v>427</v>
       </c>
       <c r="E424" t="s">
-        <v>958</v>
+        <v>972</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -10509,7 +10551,7 @@
         <v>428</v>
       </c>
       <c r="E425" t="s">
-        <v>959</v>
+        <v>973</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -10526,7 +10568,7 @@
         <v>429</v>
       </c>
       <c r="E426" t="s">
-        <v>955</v>
+        <v>969</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -10543,7 +10585,7 @@
         <v>430</v>
       </c>
       <c r="E427" t="s">
-        <v>955</v>
+        <v>969</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -10560,7 +10602,7 @@
         <v>431</v>
       </c>
       <c r="E428" t="s">
-        <v>952</v>
+        <v>966</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -10577,7 +10619,7 @@
         <v>432</v>
       </c>
       <c r="E429" t="s">
-        <v>960</v>
+        <v>974</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -10594,7 +10636,7 @@
         <v>433</v>
       </c>
       <c r="E430" t="s">
-        <v>961</v>
+        <v>975</v>
       </c>
     </row>
     <row r="431" spans="1:5">
@@ -10611,7 +10653,7 @@
         <v>434</v>
       </c>
       <c r="E431" t="s">
-        <v>941</v>
+        <v>955</v>
       </c>
     </row>
     <row r="432" spans="1:5">
@@ -10628,7 +10670,7 @@
         <v>435</v>
       </c>
       <c r="E432" t="s">
-        <v>949</v>
+        <v>963</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -10645,7 +10687,7 @@
         <v>436</v>
       </c>
       <c r="E433" t="s">
-        <v>944</v>
+        <v>958</v>
       </c>
     </row>
     <row r="434" spans="1:5">
@@ -10662,7 +10704,7 @@
         <v>437</v>
       </c>
       <c r="E434" t="s">
-        <v>962</v>
+        <v>976</v>
       </c>
     </row>
     <row r="435" spans="1:5">
@@ -10679,7 +10721,7 @@
         <v>438</v>
       </c>
       <c r="E435" t="s">
-        <v>948</v>
+        <v>962</v>
       </c>
     </row>
     <row r="436" spans="1:5">
@@ -10696,7 +10738,7 @@
         <v>439</v>
       </c>
       <c r="E436" t="s">
-        <v>948</v>
+        <v>962</v>
       </c>
     </row>
     <row r="437" spans="1:5">
@@ -10713,7 +10755,7 @@
         <v>440</v>
       </c>
       <c r="E437" t="s">
-        <v>946</v>
+        <v>960</v>
       </c>
     </row>
     <row r="438" spans="1:5">
@@ -10730,7 +10772,7 @@
         <v>441</v>
       </c>
       <c r="E438" t="s">
-        <v>931</v>
+        <v>945</v>
       </c>
     </row>
     <row r="439" spans="1:5">
@@ -10747,7 +10789,7 @@
         <v>442</v>
       </c>
       <c r="E439" t="s">
-        <v>938</v>
+        <v>952</v>
       </c>
     </row>
     <row r="440" spans="1:5">
@@ -10764,7 +10806,7 @@
         <v>443</v>
       </c>
       <c r="E440" t="s">
-        <v>933</v>
+        <v>947</v>
       </c>
     </row>
     <row r="441" spans="1:5">
@@ -10781,7 +10823,7 @@
         <v>444</v>
       </c>
       <c r="E441" t="s">
-        <v>933</v>
+        <v>947</v>
       </c>
     </row>
     <row r="442" spans="1:5">
@@ -10798,7 +10840,7 @@
         <v>445</v>
       </c>
       <c r="E442" t="s">
-        <v>932</v>
+        <v>946</v>
       </c>
     </row>
     <row r="443" spans="1:5">
@@ -10815,7 +10857,7 @@
         <v>446</v>
       </c>
       <c r="E443" t="s">
-        <v>931</v>
+        <v>945</v>
       </c>
     </row>
     <row r="444" spans="1:5">
@@ -10832,7 +10874,7 @@
         <v>447</v>
       </c>
       <c r="E444" t="s">
-        <v>938</v>
+        <v>952</v>
       </c>
     </row>
     <row r="445" spans="1:5">
@@ -10849,7 +10891,7 @@
         <v>448</v>
       </c>
       <c r="E445" t="s">
-        <v>932</v>
+        <v>946</v>
       </c>
     </row>
     <row r="446" spans="1:5">
@@ -10866,7 +10908,7 @@
         <v>449</v>
       </c>
       <c r="E446" t="s">
-        <v>932</v>
+        <v>946</v>
       </c>
     </row>
     <row r="447" spans="1:5">
@@ -10883,7 +10925,7 @@
         <v>450</v>
       </c>
       <c r="E447" t="s">
-        <v>938</v>
+        <v>952</v>
       </c>
     </row>
     <row r="448" spans="1:5">
@@ -10900,7 +10942,7 @@
         <v>451</v>
       </c>
       <c r="E448" t="s">
-        <v>938</v>
+        <v>952</v>
       </c>
     </row>
     <row r="449" spans="1:5">
@@ -10917,7 +10959,7 @@
         <v>452</v>
       </c>
       <c r="E449" t="s">
-        <v>932</v>
+        <v>946</v>
       </c>
     </row>
     <row r="450" spans="1:5">
@@ -10934,7 +10976,7 @@
         <v>453</v>
       </c>
       <c r="E450" t="s">
-        <v>938</v>
+        <v>952</v>
       </c>
     </row>
     <row r="451" spans="1:5">
@@ -10951,7 +10993,7 @@
         <v>454</v>
       </c>
       <c r="E451" t="s">
-        <v>931</v>
+        <v>945</v>
       </c>
     </row>
     <row r="452" spans="1:5">
@@ -10968,7 +11010,7 @@
         <v>455</v>
       </c>
       <c r="E452" t="s">
-        <v>931</v>
+        <v>945</v>
       </c>
     </row>
     <row r="453" spans="1:5">
@@ -10985,7 +11027,7 @@
         <v>456</v>
       </c>
       <c r="E453" t="s">
-        <v>934</v>
+        <v>948</v>
       </c>
     </row>
     <row r="454" spans="1:5">
@@ -11002,7 +11044,7 @@
         <v>457</v>
       </c>
       <c r="E454" t="s">
-        <v>934</v>
+        <v>948</v>
       </c>
     </row>
     <row r="455" spans="1:5">
@@ -11019,7 +11061,7 @@
         <v>458</v>
       </c>
       <c r="E455" t="s">
-        <v>934</v>
+        <v>948</v>
       </c>
     </row>
     <row r="456" spans="1:5">
@@ -11036,7 +11078,7 @@
         <v>459</v>
       </c>
       <c r="E456" t="s">
-        <v>937</v>
+        <v>951</v>
       </c>
     </row>
     <row r="457" spans="1:5">
@@ -11053,7 +11095,7 @@
         <v>460</v>
       </c>
       <c r="E457" t="s">
-        <v>937</v>
+        <v>951</v>
       </c>
     </row>
     <row r="458" spans="1:5">
@@ -11070,7 +11112,7 @@
         <v>461</v>
       </c>
       <c r="E458" t="s">
-        <v>900</v>
+        <v>914</v>
       </c>
     </row>
     <row r="459" spans="1:5">
@@ -11087,7 +11129,7 @@
         <v>462</v>
       </c>
       <c r="E459" t="s">
-        <v>938</v>
+        <v>952</v>
       </c>
     </row>
     <row r="460" spans="1:5">
@@ -11104,7 +11146,7 @@
         <v>463</v>
       </c>
       <c r="E460" t="s">
-        <v>938</v>
+        <v>952</v>
       </c>
     </row>
     <row r="461" spans="1:5">
@@ -11121,7 +11163,7 @@
         <v>464</v>
       </c>
       <c r="E461" t="s">
-        <v>934</v>
+        <v>948</v>
       </c>
     </row>
     <row r="462" spans="1:5">
@@ -11138,7 +11180,7 @@
         <v>465</v>
       </c>
       <c r="E462" t="s">
-        <v>938</v>
+        <v>952</v>
       </c>
     </row>
     <row r="463" spans="1:5">
@@ -11155,7 +11197,7 @@
         <v>466</v>
       </c>
       <c r="E463" t="s">
-        <v>938</v>
+        <v>952</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -11172,7 +11214,7 @@
         <v>467</v>
       </c>
       <c r="E464" t="s">
-        <v>937</v>
+        <v>951</v>
       </c>
     </row>
     <row r="465" spans="1:5">
@@ -11189,7 +11231,7 @@
         <v>468</v>
       </c>
       <c r="E465" t="s">
-        <v>936</v>
+        <v>950</v>
       </c>
     </row>
     <row r="466" spans="1:5">
@@ -11206,7 +11248,7 @@
         <v>469</v>
       </c>
       <c r="E466" t="s">
-        <v>937</v>
+        <v>951</v>
       </c>
     </row>
     <row r="467" spans="1:5">
@@ -11223,7 +11265,7 @@
         <v>470</v>
       </c>
       <c r="E467" t="s">
-        <v>937</v>
+        <v>951</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -11240,7 +11282,7 @@
         <v>471</v>
       </c>
       <c r="E468" t="s">
-        <v>936</v>
+        <v>950</v>
       </c>
     </row>
     <row r="469" spans="1:5">
@@ -11257,7 +11299,7 @@
         <v>472</v>
       </c>
       <c r="E469" t="s">
-        <v>902</v>
+        <v>916</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -11274,7 +11316,7 @@
         <v>473</v>
       </c>
       <c r="E470" t="s">
-        <v>902</v>
+        <v>916</v>
       </c>
     </row>
     <row r="471" spans="1:5">
@@ -11291,7 +11333,7 @@
         <v>474</v>
       </c>
       <c r="E471" t="s">
-        <v>902</v>
+        <v>916</v>
       </c>
     </row>
     <row r="472" spans="1:5">
@@ -11308,7 +11350,7 @@
         <v>475</v>
       </c>
       <c r="E472" t="s">
-        <v>902</v>
+        <v>916</v>
       </c>
     </row>
     <row r="473" spans="1:5">
@@ -11325,7 +11367,7 @@
         <v>476</v>
       </c>
       <c r="E473" t="s">
-        <v>906</v>
+        <v>920</v>
       </c>
     </row>
     <row r="474" spans="1:5">
@@ -11342,7 +11384,7 @@
         <v>477</v>
       </c>
       <c r="E474" t="s">
-        <v>906</v>
+        <v>920</v>
       </c>
     </row>
     <row r="475" spans="1:5">
@@ -11359,7 +11401,7 @@
         <v>478</v>
       </c>
       <c r="E475" t="s">
-        <v>899</v>
+        <v>913</v>
       </c>
     </row>
     <row r="476" spans="1:5">
@@ -11376,7 +11418,7 @@
         <v>479</v>
       </c>
       <c r="E476" t="s">
-        <v>898</v>
+        <v>912</v>
       </c>
     </row>
     <row r="477" spans="1:5">
@@ -11393,7 +11435,7 @@
         <v>480</v>
       </c>
       <c r="E477" t="s">
-        <v>927</v>
+        <v>941</v>
       </c>
     </row>
     <row r="478" spans="1:5">
@@ -11410,7 +11452,7 @@
         <v>481</v>
       </c>
       <c r="E478" t="s">
-        <v>925</v>
+        <v>939</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -11427,7 +11469,7 @@
         <v>482</v>
       </c>
       <c r="E479" t="s">
-        <v>927</v>
+        <v>941</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -11444,7 +11486,7 @@
         <v>483</v>
       </c>
       <c r="E480" t="s">
-        <v>907</v>
+        <v>921</v>
       </c>
     </row>
     <row r="481" spans="1:5">
@@ -11461,7 +11503,7 @@
         <v>484</v>
       </c>
       <c r="E481" t="s">
-        <v>924</v>
+        <v>938</v>
       </c>
     </row>
     <row r="482" spans="1:5">
@@ -11478,7 +11520,7 @@
         <v>485</v>
       </c>
       <c r="E482" t="s">
-        <v>924</v>
+        <v>938</v>
       </c>
     </row>
     <row r="483" spans="1:5">
@@ -11495,7 +11537,7 @@
         <v>486</v>
       </c>
       <c r="E483" t="s">
-        <v>924</v>
+        <v>938</v>
       </c>
     </row>
     <row r="484" spans="1:5">
@@ -11512,7 +11554,7 @@
         <v>487</v>
       </c>
       <c r="E484" t="s">
-        <v>924</v>
+        <v>938</v>
       </c>
     </row>
     <row r="485" spans="1:5">
@@ -11529,7 +11571,7 @@
         <v>488</v>
       </c>
       <c r="E485" t="s">
-        <v>909</v>
+        <v>923</v>
       </c>
     </row>
     <row r="486" spans="1:5">
@@ -11546,7 +11588,7 @@
         <v>489</v>
       </c>
       <c r="E486" t="s">
-        <v>926</v>
+        <v>940</v>
       </c>
     </row>
     <row r="487" spans="1:5">
@@ -11563,7 +11605,7 @@
         <v>490</v>
       </c>
       <c r="E487" t="s">
-        <v>909</v>
+        <v>923</v>
       </c>
     </row>
     <row r="488" spans="1:5">
@@ -11580,7 +11622,7 @@
         <v>491</v>
       </c>
       <c r="E488" t="s">
-        <v>909</v>
+        <v>923</v>
       </c>
     </row>
     <row r="489" spans="1:5">
@@ -11597,7 +11639,7 @@
         <v>492</v>
       </c>
       <c r="E489" t="s">
-        <v>926</v>
+        <v>940</v>
       </c>
     </row>
     <row r="490" spans="1:5">
@@ -11614,7 +11656,7 @@
         <v>493</v>
       </c>
       <c r="E490" t="s">
-        <v>909</v>
+        <v>923</v>
       </c>
     </row>
     <row r="491" spans="1:5">
@@ -11631,7 +11673,7 @@
         <v>494</v>
       </c>
       <c r="E491" t="s">
-        <v>909</v>
+        <v>923</v>
       </c>
     </row>
     <row r="492" spans="1:5">
@@ -11648,7 +11690,7 @@
         <v>495</v>
       </c>
       <c r="E492" t="s">
-        <v>897</v>
+        <v>911</v>
       </c>
     </row>
     <row r="493" spans="1:5">
@@ -11665,7 +11707,7 @@
         <v>496</v>
       </c>
       <c r="E493" t="s">
-        <v>897</v>
+        <v>911</v>
       </c>
     </row>
     <row r="494" spans="1:5">
@@ -11682,7 +11724,7 @@
         <v>497</v>
       </c>
       <c r="E494" t="s">
-        <v>909</v>
+        <v>923</v>
       </c>
     </row>
     <row r="495" spans="1:5">
@@ -11699,7 +11741,7 @@
         <v>498</v>
       </c>
       <c r="E495" t="s">
-        <v>923</v>
+        <v>937</v>
       </c>
     </row>
     <row r="496" spans="1:5">
@@ -11716,7 +11758,7 @@
         <v>499</v>
       </c>
       <c r="E496" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
     </row>
     <row r="497" spans="1:5">
@@ -11733,7 +11775,7 @@
         <v>500</v>
       </c>
       <c r="E497" t="s">
-        <v>923</v>
+        <v>937</v>
       </c>
     </row>
     <row r="498" spans="1:5">
@@ -11750,7 +11792,7 @@
         <v>501</v>
       </c>
       <c r="E498" t="s">
-        <v>923</v>
+        <v>937</v>
       </c>
     </row>
     <row r="499" spans="1:5">
@@ -11767,7 +11809,7 @@
         <v>502</v>
       </c>
       <c r="E499" t="s">
-        <v>897</v>
+        <v>911</v>
       </c>
     </row>
     <row r="500" spans="1:5">
@@ -11784,7 +11826,7 @@
         <v>503</v>
       </c>
       <c r="E500" t="s">
-        <v>923</v>
+        <v>937</v>
       </c>
     </row>
     <row r="501" spans="1:5">
@@ -11801,7 +11843,7 @@
         <v>504</v>
       </c>
       <c r="E501" t="s">
-        <v>923</v>
+        <v>937</v>
       </c>
     </row>
     <row r="502" spans="1:5">
@@ -11818,7 +11860,7 @@
         <v>505</v>
       </c>
       <c r="E502" t="s">
-        <v>897</v>
+        <v>911</v>
       </c>
     </row>
     <row r="503" spans="1:5">
@@ -11835,7 +11877,7 @@
         <v>506</v>
       </c>
       <c r="E503" t="s">
-        <v>897</v>
+        <v>911</v>
       </c>
     </row>
     <row r="504" spans="1:5">
@@ -11852,7 +11894,7 @@
         <v>507</v>
       </c>
       <c r="E504" t="s">
-        <v>909</v>
+        <v>923</v>
       </c>
     </row>
     <row r="505" spans="1:5">
@@ -11869,7 +11911,7 @@
         <v>508</v>
       </c>
       <c r="E505" t="s">
-        <v>909</v>
+        <v>923</v>
       </c>
     </row>
     <row r="506" spans="1:5">
@@ -11886,7 +11928,7 @@
         <v>509</v>
       </c>
       <c r="E506" t="s">
-        <v>909</v>
+        <v>923</v>
       </c>
     </row>
     <row r="507" spans="1:5">
@@ -11903,7 +11945,7 @@
         <v>510</v>
       </c>
       <c r="E507" t="s">
-        <v>897</v>
+        <v>911</v>
       </c>
     </row>
     <row r="508" spans="1:5">
@@ -11920,7 +11962,7 @@
         <v>511</v>
       </c>
       <c r="E508" t="s">
-        <v>923</v>
+        <v>937</v>
       </c>
     </row>
     <row r="509" spans="1:5">
@@ -11937,7 +11979,7 @@
         <v>512</v>
       </c>
       <c r="E509" t="s">
-        <v>909</v>
+        <v>923</v>
       </c>
     </row>
     <row r="510" spans="1:5">
@@ -11954,7 +11996,7 @@
         <v>513</v>
       </c>
       <c r="E510" t="s">
-        <v>909</v>
+        <v>923</v>
       </c>
     </row>
     <row r="511" spans="1:5">
@@ -11971,7 +12013,7 @@
         <v>514</v>
       </c>
       <c r="E511" t="s">
-        <v>923</v>
+        <v>937</v>
       </c>
     </row>
     <row r="512" spans="1:5">
@@ -11988,7 +12030,7 @@
         <v>515</v>
       </c>
       <c r="E512" t="s">
-        <v>908</v>
+        <v>922</v>
       </c>
     </row>
     <row r="513" spans="1:5">
@@ -12005,7 +12047,7 @@
         <v>516</v>
       </c>
       <c r="E513" t="s">
-        <v>924</v>
+        <v>938</v>
       </c>
     </row>
     <row r="514" spans="1:5">
@@ -12022,7 +12064,7 @@
         <v>517</v>
       </c>
       <c r="E514" t="s">
-        <v>925</v>
+        <v>939</v>
       </c>
     </row>
     <row r="515" spans="1:5">
@@ -12039,7 +12081,7 @@
         <v>518</v>
       </c>
       <c r="E515" t="s">
-        <v>925</v>
+        <v>939</v>
       </c>
     </row>
     <row r="516" spans="1:5">
@@ -12056,7 +12098,7 @@
         <v>519</v>
       </c>
       <c r="E516" t="s">
-        <v>899</v>
+        <v>913</v>
       </c>
     </row>
     <row r="517" spans="1:5">
@@ -12073,7 +12115,7 @@
         <v>520</v>
       </c>
       <c r="E517" t="s">
-        <v>906</v>
+        <v>920</v>
       </c>
     </row>
     <row r="518" spans="1:5">
@@ -12090,7 +12132,7 @@
         <v>521</v>
       </c>
       <c r="E518" t="s">
-        <v>904</v>
+        <v>918</v>
       </c>
     </row>
     <row r="519" spans="1:5">
@@ -12107,7 +12149,7 @@
         <v>522</v>
       </c>
       <c r="E519" t="s">
-        <v>902</v>
+        <v>916</v>
       </c>
     </row>
     <row r="520" spans="1:5">
@@ -12124,7 +12166,7 @@
         <v>523</v>
       </c>
       <c r="E520" t="s">
-        <v>901</v>
+        <v>915</v>
       </c>
     </row>
     <row r="521" spans="1:5">
@@ -12141,7 +12183,7 @@
         <v>524</v>
       </c>
       <c r="E521" t="s">
-        <v>900</v>
+        <v>914</v>
       </c>
     </row>
     <row r="522" spans="1:5">
@@ -12158,7 +12200,7 @@
         <v>525</v>
       </c>
       <c r="E522" t="s">
-        <v>936</v>
+        <v>950</v>
       </c>
     </row>
     <row r="523" spans="1:5">
@@ -12175,7 +12217,7 @@
         <v>526</v>
       </c>
       <c r="E523" t="s">
-        <v>936</v>
+        <v>950</v>
       </c>
     </row>
     <row r="524" spans="1:5">
@@ -12192,7 +12234,7 @@
         <v>527</v>
       </c>
       <c r="E524" t="s">
-        <v>901</v>
+        <v>915</v>
       </c>
     </row>
     <row r="525" spans="1:5">
@@ -12209,7 +12251,7 @@
         <v>528</v>
       </c>
       <c r="E525" t="s">
-        <v>936</v>
+        <v>950</v>
       </c>
     </row>
     <row r="526" spans="1:5">
@@ -12226,7 +12268,7 @@
         <v>529</v>
       </c>
       <c r="E526" t="s">
-        <v>936</v>
+        <v>950</v>
       </c>
     </row>
     <row r="527" spans="1:5">
@@ -12243,7 +12285,7 @@
         <v>530</v>
       </c>
       <c r="E527" t="s">
-        <v>937</v>
+        <v>951</v>
       </c>
     </row>
     <row r="528" spans="1:5">
@@ -12260,7 +12302,7 @@
         <v>531</v>
       </c>
       <c r="E528" t="s">
-        <v>937</v>
+        <v>951</v>
       </c>
     </row>
     <row r="529" spans="1:5">
@@ -12277,7 +12319,7 @@
         <v>532</v>
       </c>
       <c r="E529" t="s">
-        <v>932</v>
+        <v>946</v>
       </c>
     </row>
     <row r="530" spans="1:5">
@@ -12294,7 +12336,7 @@
         <v>533</v>
       </c>
       <c r="E530" t="s">
-        <v>932</v>
+        <v>946</v>
       </c>
     </row>
     <row r="531" spans="1:5">
@@ -12311,7 +12353,7 @@
         <v>534</v>
       </c>
       <c r="E531" t="s">
-        <v>931</v>
+        <v>945</v>
       </c>
     </row>
     <row r="532" spans="1:5">
@@ -12328,7 +12370,7 @@
         <v>535</v>
       </c>
       <c r="E532" t="s">
-        <v>931</v>
+        <v>945</v>
       </c>
     </row>
     <row r="533" spans="1:5">
@@ -12345,7 +12387,7 @@
         <v>536</v>
       </c>
       <c r="E533" t="s">
-        <v>931</v>
+        <v>945</v>
       </c>
     </row>
     <row r="534" spans="1:5">
@@ -12362,7 +12404,7 @@
         <v>537</v>
       </c>
       <c r="E534" t="s">
-        <v>947</v>
+        <v>961</v>
       </c>
     </row>
     <row r="535" spans="1:5">
@@ -12379,7 +12421,7 @@
         <v>538</v>
       </c>
       <c r="E535" t="s">
-        <v>948</v>
+        <v>962</v>
       </c>
     </row>
     <row r="536" spans="1:5">
@@ -12396,7 +12438,7 @@
         <v>539</v>
       </c>
       <c r="E536" t="s">
-        <v>946</v>
+        <v>960</v>
       </c>
     </row>
     <row r="537" spans="1:5">
@@ -12413,7 +12455,7 @@
         <v>540</v>
       </c>
       <c r="E537" t="s">
-        <v>947</v>
+        <v>961</v>
       </c>
     </row>
     <row r="538" spans="1:5">
@@ -12430,7 +12472,7 @@
         <v>541</v>
       </c>
       <c r="E538" t="s">
-        <v>947</v>
+        <v>961</v>
       </c>
     </row>
     <row r="539" spans="1:5">
@@ -12447,7 +12489,7 @@
         <v>542</v>
       </c>
       <c r="E539" t="s">
-        <v>932</v>
+        <v>946</v>
       </c>
     </row>
     <row r="540" spans="1:5">
@@ -12464,7 +12506,7 @@
         <v>543</v>
       </c>
       <c r="E540" t="s">
-        <v>931</v>
+        <v>945</v>
       </c>
     </row>
     <row r="541" spans="1:5">
@@ -12481,7 +12523,7 @@
         <v>544</v>
       </c>
       <c r="E541" t="s">
-        <v>931</v>
+        <v>945</v>
       </c>
     </row>
     <row r="542" spans="1:5">
@@ -12498,7 +12540,7 @@
         <v>545</v>
       </c>
       <c r="E542" t="s">
-        <v>932</v>
+        <v>946</v>
       </c>
     </row>
     <row r="543" spans="1:5">
@@ -12515,7 +12557,7 @@
         <v>546</v>
       </c>
       <c r="E543" t="s">
-        <v>934</v>
+        <v>948</v>
       </c>
     </row>
     <row r="544" spans="1:5">
@@ -12532,7 +12574,7 @@
         <v>547</v>
       </c>
       <c r="E544" t="s">
-        <v>937</v>
+        <v>951</v>
       </c>
     </row>
     <row r="545" spans="1:5">
@@ -12549,7 +12591,7 @@
         <v>548</v>
       </c>
       <c r="E545" t="s">
-        <v>934</v>
+        <v>948</v>
       </c>
     </row>
     <row r="546" spans="1:5">
@@ -12566,7 +12608,7 @@
         <v>549</v>
       </c>
       <c r="E546" t="s">
-        <v>934</v>
+        <v>948</v>
       </c>
     </row>
     <row r="547" spans="1:5">
@@ -12583,7 +12625,7 @@
         <v>550</v>
       </c>
       <c r="E547" t="s">
-        <v>937</v>
+        <v>951</v>
       </c>
     </row>
     <row r="548" spans="1:5">
@@ -12600,7 +12642,7 @@
         <v>551</v>
       </c>
       <c r="E548" t="s">
-        <v>936</v>
+        <v>950</v>
       </c>
     </row>
     <row r="549" spans="1:5">
@@ -12617,7 +12659,7 @@
         <v>552</v>
       </c>
       <c r="E549" t="s">
-        <v>901</v>
+        <v>915</v>
       </c>
     </row>
     <row r="550" spans="1:5">
@@ -12634,7 +12676,7 @@
         <v>553</v>
       </c>
       <c r="E550" t="s">
-        <v>900</v>
+        <v>914</v>
       </c>
     </row>
     <row r="551" spans="1:5">
@@ -12651,7 +12693,7 @@
         <v>554</v>
       </c>
       <c r="E551" t="s">
-        <v>901</v>
+        <v>915</v>
       </c>
     </row>
     <row r="552" spans="1:5">
@@ -12668,7 +12710,7 @@
         <v>555</v>
       </c>
       <c r="E552" t="s">
-        <v>902</v>
+        <v>916</v>
       </c>
     </row>
     <row r="553" spans="1:5">
@@ -12685,7 +12727,7 @@
         <v>556</v>
       </c>
       <c r="E553" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="554" spans="1:5">
@@ -12702,7 +12744,7 @@
         <v>557</v>
       </c>
       <c r="E554" t="s">
-        <v>902</v>
+        <v>916</v>
       </c>
     </row>
     <row r="555" spans="1:5">
@@ -12719,7 +12761,7 @@
         <v>558</v>
       </c>
       <c r="E555" t="s">
-        <v>902</v>
+        <v>916</v>
       </c>
     </row>
     <row r="556" spans="1:5">
@@ -12736,7 +12778,7 @@
         <v>559</v>
       </c>
       <c r="E556" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="557" spans="1:5">
@@ -12753,7 +12795,7 @@
         <v>560</v>
       </c>
       <c r="E557" t="s">
-        <v>904</v>
+        <v>918</v>
       </c>
     </row>
     <row r="558" spans="1:5">
@@ -12770,7 +12812,7 @@
         <v>561</v>
       </c>
       <c r="E558" t="s">
-        <v>898</v>
+        <v>912</v>
       </c>
     </row>
     <row r="559" spans="1:5">
@@ -12787,7 +12829,7 @@
         <v>562</v>
       </c>
       <c r="E559" t="s">
-        <v>898</v>
+        <v>912</v>
       </c>
     </row>
     <row r="560" spans="1:5">
@@ -12804,7 +12846,7 @@
         <v>563</v>
       </c>
       <c r="E560" t="s">
-        <v>898</v>
+        <v>912</v>
       </c>
     </row>
     <row r="561" spans="1:5">
@@ -12821,7 +12863,7 @@
         <v>564</v>
       </c>
       <c r="E561" t="s">
-        <v>927</v>
+        <v>941</v>
       </c>
     </row>
     <row r="562" spans="1:5">
@@ -12838,7 +12880,7 @@
         <v>565</v>
       </c>
       <c r="E562" t="s">
-        <v>925</v>
+        <v>939</v>
       </c>
     </row>
     <row r="563" spans="1:5">
@@ -12855,7 +12897,7 @@
         <v>566</v>
       </c>
       <c r="E563" t="s">
-        <v>907</v>
+        <v>921</v>
       </c>
     </row>
     <row r="564" spans="1:5">
@@ -12872,7 +12914,7 @@
         <v>567</v>
       </c>
       <c r="E564" t="s">
-        <v>926</v>
+        <v>940</v>
       </c>
     </row>
     <row r="565" spans="1:5">
@@ -12889,7 +12931,7 @@
         <v>568</v>
       </c>
       <c r="E565" t="s">
-        <v>908</v>
+        <v>922</v>
       </c>
     </row>
     <row r="566" spans="1:5">
@@ -12906,7 +12948,7 @@
         <v>569</v>
       </c>
       <c r="E566" t="s">
-        <v>926</v>
+        <v>940</v>
       </c>
     </row>
     <row r="567" spans="1:5">
@@ -12923,7 +12965,7 @@
         <v>570</v>
       </c>
       <c r="E567" t="s">
-        <v>909</v>
+        <v>923</v>
       </c>
     </row>
     <row r="568" spans="1:5">
@@ -12940,7 +12982,7 @@
         <v>571</v>
       </c>
       <c r="E568" t="s">
-        <v>909</v>
+        <v>923</v>
       </c>
     </row>
     <row r="569" spans="1:5">
@@ -12957,7 +12999,7 @@
         <v>572</v>
       </c>
       <c r="E569" t="s">
-        <v>907</v>
+        <v>921</v>
       </c>
     </row>
     <row r="570" spans="1:5">
@@ -12974,7 +13016,7 @@
         <v>573</v>
       </c>
       <c r="E570" t="s">
-        <v>926</v>
+        <v>940</v>
       </c>
     </row>
     <row r="571" spans="1:5">
@@ -12991,7 +13033,7 @@
         <v>574</v>
       </c>
       <c r="E571" t="s">
-        <v>926</v>
+        <v>940</v>
       </c>
     </row>
     <row r="572" spans="1:5">
@@ -13008,7 +13050,7 @@
         <v>575</v>
       </c>
       <c r="E572" t="s">
-        <v>924</v>
+        <v>938</v>
       </c>
     </row>
     <row r="573" spans="1:5">
@@ -13025,7 +13067,7 @@
         <v>576</v>
       </c>
       <c r="E573" t="s">
-        <v>924</v>
+        <v>938</v>
       </c>
     </row>
     <row r="574" spans="1:5">
@@ -13042,7 +13084,7 @@
         <v>577</v>
       </c>
       <c r="E574" t="s">
-        <v>926</v>
+        <v>940</v>
       </c>
     </row>
     <row r="575" spans="1:5">
@@ -13059,7 +13101,7 @@
         <v>578</v>
       </c>
       <c r="E575" t="s">
-        <v>908</v>
+        <v>922</v>
       </c>
     </row>
     <row r="576" spans="1:5">
@@ -13076,7 +13118,7 @@
         <v>579</v>
       </c>
       <c r="E576" t="s">
-        <v>926</v>
+        <v>940</v>
       </c>
     </row>
     <row r="577" spans="1:5">
@@ -13093,7 +13135,7 @@
         <v>580</v>
       </c>
       <c r="E577" t="s">
-        <v>926</v>
+        <v>940</v>
       </c>
     </row>
     <row r="578" spans="1:5">
@@ -13110,7 +13152,7 @@
         <v>581</v>
       </c>
       <c r="E578" t="s">
-        <v>926</v>
+        <v>940</v>
       </c>
     </row>
     <row r="579" spans="1:5">
@@ -13127,7 +13169,7 @@
         <v>582</v>
       </c>
       <c r="E579" t="s">
-        <v>908</v>
+        <v>922</v>
       </c>
     </row>
     <row r="580" spans="1:5">
@@ -13144,7 +13186,7 @@
         <v>583</v>
       </c>
       <c r="E580" t="s">
-        <v>908</v>
+        <v>922</v>
       </c>
     </row>
     <row r="581" spans="1:5">
@@ -13161,7 +13203,7 @@
         <v>584</v>
       </c>
       <c r="E581" t="s">
-        <v>926</v>
+        <v>940</v>
       </c>
     </row>
     <row r="582" spans="1:5">
@@ -13178,7 +13220,7 @@
         <v>585</v>
       </c>
       <c r="E582" t="s">
-        <v>926</v>
+        <v>940</v>
       </c>
     </row>
     <row r="583" spans="1:5">
@@ -13195,7 +13237,7 @@
         <v>586</v>
       </c>
       <c r="E583" t="s">
-        <v>897</v>
+        <v>911</v>
       </c>
     </row>
     <row r="584" spans="1:5">
@@ -13212,7 +13254,7 @@
         <v>587</v>
       </c>
       <c r="E584" t="s">
-        <v>908</v>
+        <v>922</v>
       </c>
     </row>
     <row r="585" spans="1:5">
@@ -13229,7 +13271,7 @@
         <v>588</v>
       </c>
       <c r="E585" t="s">
-        <v>930</v>
+        <v>944</v>
       </c>
     </row>
     <row r="586" spans="1:5">
@@ -13246,7 +13288,7 @@
         <v>589</v>
       </c>
       <c r="E586" t="s">
-        <v>923</v>
+        <v>937</v>
       </c>
     </row>
     <row r="587" spans="1:5">
@@ -13263,7 +13305,7 @@
         <v>590</v>
       </c>
       <c r="E587" t="s">
-        <v>923</v>
+        <v>937</v>
       </c>
     </row>
     <row r="588" spans="1:5">
@@ -13280,7 +13322,7 @@
         <v>591</v>
       </c>
       <c r="E588" t="s">
-        <v>909</v>
+        <v>923</v>
       </c>
     </row>
     <row r="589" spans="1:5">
@@ -13297,7 +13339,7 @@
         <v>592</v>
       </c>
       <c r="E589" t="s">
-        <v>909</v>
+        <v>923</v>
       </c>
     </row>
     <row r="590" spans="1:5">
@@ -13314,7 +13356,7 @@
         <v>593</v>
       </c>
       <c r="E590" t="s">
-        <v>897</v>
+        <v>911</v>
       </c>
     </row>
     <row r="591" spans="1:5">
@@ -13331,7 +13373,7 @@
         <v>594</v>
       </c>
       <c r="E591" t="s">
-        <v>923</v>
+        <v>937</v>
       </c>
     </row>
     <row r="592" spans="1:5">
@@ -13348,7 +13390,7 @@
         <v>595</v>
       </c>
       <c r="E592" t="s">
-        <v>923</v>
+        <v>937</v>
       </c>
     </row>
     <row r="593" spans="1:5">
@@ -13365,7 +13407,7 @@
         <v>596</v>
       </c>
       <c r="E593" t="s">
-        <v>930</v>
+        <v>944</v>
       </c>
     </row>
     <row r="594" spans="1:5">
@@ -13382,7 +13424,7 @@
         <v>597</v>
       </c>
       <c r="E594" t="s">
-        <v>922</v>
+        <v>936</v>
       </c>
     </row>
     <row r="595" spans="1:5">
@@ -13399,7 +13441,7 @@
         <v>598</v>
       </c>
       <c r="E595" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
     </row>
     <row r="596" spans="1:5">
@@ -13416,7 +13458,7 @@
         <v>599</v>
       </c>
       <c r="E596" t="s">
-        <v>922</v>
+        <v>936</v>
       </c>
     </row>
     <row r="597" spans="1:5">
@@ -13433,7 +13475,7 @@
         <v>600</v>
       </c>
       <c r="E597" t="s">
-        <v>935</v>
+        <v>949</v>
       </c>
     </row>
     <row r="598" spans="1:5">
@@ -13450,7 +13492,7 @@
         <v>601</v>
       </c>
       <c r="E598" t="s">
-        <v>922</v>
+        <v>936</v>
       </c>
     </row>
     <row r="599" spans="1:5">
@@ -13467,7 +13509,7 @@
         <v>602</v>
       </c>
       <c r="E599" t="s">
-        <v>895</v>
+        <v>909</v>
       </c>
     </row>
     <row r="600" spans="1:5">
@@ -13484,7 +13526,7 @@
         <v>603</v>
       </c>
       <c r="E600" t="s">
-        <v>928</v>
+        <v>942</v>
       </c>
     </row>
     <row r="601" spans="1:5">
@@ -13501,7 +13543,7 @@
         <v>604</v>
       </c>
       <c r="E601" t="s">
-        <v>895</v>
+        <v>909</v>
       </c>
     </row>
     <row r="602" spans="1:5">
@@ -13518,7 +13560,7 @@
         <v>605</v>
       </c>
       <c r="E602" t="s">
-        <v>928</v>
+        <v>942</v>
       </c>
     </row>
     <row r="603" spans="1:5">
@@ -13535,7 +13577,7 @@
         <v>606</v>
       </c>
       <c r="E603" t="s">
-        <v>928</v>
+        <v>942</v>
       </c>
     </row>
     <row r="604" spans="1:5">
@@ -13552,7 +13594,7 @@
         <v>607</v>
       </c>
       <c r="E604" t="s">
-        <v>895</v>
+        <v>909</v>
       </c>
     </row>
     <row r="605" spans="1:5">
@@ -13569,7 +13611,7 @@
         <v>608</v>
       </c>
       <c r="E605" t="s">
-        <v>894</v>
+        <v>908</v>
       </c>
     </row>
     <row r="606" spans="1:5">
@@ -13586,7 +13628,7 @@
         <v>609</v>
       </c>
       <c r="E606" t="s">
-        <v>911</v>
+        <v>925</v>
       </c>
     </row>
     <row r="607" spans="1:5">
@@ -13603,7 +13645,7 @@
         <v>610</v>
       </c>
       <c r="E607" t="s">
-        <v>910</v>
+        <v>924</v>
       </c>
     </row>
     <row r="608" spans="1:5">
@@ -13620,7 +13662,7 @@
         <v>611</v>
       </c>
       <c r="E608" t="s">
-        <v>910</v>
+        <v>924</v>
       </c>
     </row>
     <row r="609" spans="1:5">
@@ -13637,7 +13679,7 @@
         <v>612</v>
       </c>
       <c r="E609" t="s">
-        <v>910</v>
+        <v>924</v>
       </c>
     </row>
     <row r="610" spans="1:5">
@@ -13654,7 +13696,7 @@
         <v>613</v>
       </c>
       <c r="E610" t="s">
-        <v>928</v>
+        <v>942</v>
       </c>
     </row>
     <row r="611" spans="1:5">
@@ -13671,7 +13713,7 @@
         <v>614</v>
       </c>
       <c r="E611" t="s">
-        <v>910</v>
+        <v>924</v>
       </c>
     </row>
     <row r="612" spans="1:5">
@@ -13688,7 +13730,7 @@
         <v>615</v>
       </c>
       <c r="E612" t="s">
-        <v>911</v>
+        <v>925</v>
       </c>
     </row>
     <row r="613" spans="1:5">
@@ -13705,7 +13747,7 @@
         <v>616</v>
       </c>
       <c r="E613" t="s">
-        <v>911</v>
+        <v>925</v>
       </c>
     </row>
     <row r="614" spans="1:5">
@@ -13722,7 +13764,7 @@
         <v>617</v>
       </c>
       <c r="E614" t="s">
-        <v>894</v>
+        <v>908</v>
       </c>
     </row>
     <row r="615" spans="1:5">
@@ -13739,7 +13781,7 @@
         <v>618</v>
       </c>
       <c r="E615" t="s">
-        <v>911</v>
+        <v>925</v>
       </c>
     </row>
     <row r="616" spans="1:5">
@@ -13756,7 +13798,7 @@
         <v>619</v>
       </c>
       <c r="E616" t="s">
-        <v>912</v>
+        <v>926</v>
       </c>
     </row>
     <row r="617" spans="1:5">
@@ -13773,7 +13815,7 @@
         <v>620</v>
       </c>
       <c r="E617" t="s">
-        <v>894</v>
+        <v>908</v>
       </c>
     </row>
     <row r="618" spans="1:5">
@@ -13790,7 +13832,7 @@
         <v>621</v>
       </c>
       <c r="E618" t="s">
-        <v>912</v>
+        <v>926</v>
       </c>
     </row>
     <row r="619" spans="1:5">
@@ -13807,7 +13849,7 @@
         <v>622</v>
       </c>
       <c r="E619" t="s">
-        <v>894</v>
+        <v>908</v>
       </c>
     </row>
     <row r="620" spans="1:5">
@@ -13824,7 +13866,7 @@
         <v>623</v>
       </c>
       <c r="E620" t="s">
-        <v>894</v>
+        <v>908</v>
       </c>
     </row>
     <row r="621" spans="1:5">
@@ -13841,7 +13883,7 @@
         <v>624</v>
       </c>
       <c r="E621" t="s">
-        <v>912</v>
+        <v>926</v>
       </c>
     </row>
     <row r="622" spans="1:5">
@@ -13858,7 +13900,7 @@
         <v>625</v>
       </c>
       <c r="E622" t="s">
-        <v>912</v>
+        <v>926</v>
       </c>
     </row>
     <row r="623" spans="1:5">
@@ -13875,7 +13917,7 @@
         <v>626</v>
       </c>
       <c r="E623" t="s">
-        <v>929</v>
+        <v>943</v>
       </c>
     </row>
     <row r="624" spans="1:5">
@@ -13892,7 +13934,7 @@
         <v>627</v>
       </c>
       <c r="E624" t="s">
-        <v>929</v>
+        <v>943</v>
       </c>
     </row>
     <row r="625" spans="1:5">
@@ -13909,7 +13951,7 @@
         <v>628</v>
       </c>
       <c r="E625" t="s">
-        <v>889</v>
+        <v>903</v>
       </c>
     </row>
     <row r="626" spans="1:5">
@@ -13926,7 +13968,7 @@
         <v>629</v>
       </c>
       <c r="E626" t="s">
-        <v>889</v>
+        <v>903</v>
       </c>
     </row>
     <row r="627" spans="1:5">
@@ -13943,7 +13985,7 @@
         <v>630</v>
       </c>
       <c r="E627" t="s">
-        <v>929</v>
+        <v>943</v>
       </c>
     </row>
     <row r="628" spans="1:5">
@@ -13960,7 +14002,7 @@
         <v>631</v>
       </c>
       <c r="E628" t="s">
-        <v>889</v>
+        <v>903</v>
       </c>
     </row>
     <row r="629" spans="1:5">
@@ -13977,7 +14019,7 @@
         <v>632</v>
       </c>
       <c r="E629" t="s">
-        <v>888</v>
+        <v>902</v>
       </c>
     </row>
     <row r="630" spans="1:5">
@@ -13994,7 +14036,7 @@
         <v>633</v>
       </c>
       <c r="E630" t="s">
-        <v>889</v>
+        <v>903</v>
       </c>
     </row>
     <row r="631" spans="1:5">
@@ -14011,7 +14053,7 @@
         <v>634</v>
       </c>
       <c r="E631" t="s">
-        <v>889</v>
+        <v>903</v>
       </c>
     </row>
     <row r="632" spans="1:5">
@@ -14028,7 +14070,7 @@
         <v>635</v>
       </c>
       <c r="E632" t="s">
-        <v>889</v>
+        <v>903</v>
       </c>
     </row>
     <row r="633" spans="1:5">
@@ -14045,7 +14087,7 @@
         <v>636</v>
       </c>
       <c r="E633" t="s">
-        <v>929</v>
+        <v>943</v>
       </c>
     </row>
     <row r="634" spans="1:5">
@@ -14062,7 +14104,7 @@
         <v>637</v>
       </c>
       <c r="E634" t="s">
-        <v>890</v>
+        <v>904</v>
       </c>
     </row>
     <row r="635" spans="1:5">
@@ -14079,7 +14121,7 @@
         <v>638</v>
       </c>
       <c r="E635" t="s">
-        <v>890</v>
+        <v>904</v>
       </c>
     </row>
     <row r="636" spans="1:5">
@@ -14096,7 +14138,7 @@
         <v>639</v>
       </c>
       <c r="E636" t="s">
-        <v>890</v>
+        <v>904</v>
       </c>
     </row>
     <row r="637" spans="1:5">
@@ -14113,7 +14155,7 @@
         <v>640</v>
       </c>
       <c r="E637" t="s">
-        <v>890</v>
+        <v>904</v>
       </c>
     </row>
     <row r="638" spans="1:5">
@@ -14130,7 +14172,7 @@
         <v>641</v>
       </c>
       <c r="E638" t="s">
-        <v>912</v>
+        <v>926</v>
       </c>
     </row>
     <row r="639" spans="1:5">
@@ -14147,7 +14189,7 @@
         <v>642</v>
       </c>
       <c r="E639" t="s">
-        <v>912</v>
+        <v>926</v>
       </c>
     </row>
     <row r="640" spans="1:5">
@@ -14164,7 +14206,7 @@
         <v>643</v>
       </c>
       <c r="E640" t="s">
-        <v>894</v>
+        <v>908</v>
       </c>
     </row>
     <row r="641" spans="1:5">
@@ -14181,7 +14223,7 @@
         <v>644</v>
       </c>
       <c r="E641" t="s">
-        <v>911</v>
+        <v>925</v>
       </c>
     </row>
     <row r="642" spans="1:5">
@@ -14198,7 +14240,7 @@
         <v>645</v>
       </c>
       <c r="E642" t="s">
-        <v>894</v>
+        <v>908</v>
       </c>
     </row>
     <row r="643" spans="1:5">
@@ -14215,7 +14257,7 @@
         <v>646</v>
       </c>
       <c r="E643" t="s">
-        <v>910</v>
+        <v>924</v>
       </c>
     </row>
     <row r="644" spans="1:5">
@@ -14232,7 +14274,7 @@
         <v>647</v>
       </c>
       <c r="E644" t="s">
-        <v>928</v>
+        <v>942</v>
       </c>
     </row>
     <row r="645" spans="1:5">
@@ -14249,7 +14291,7 @@
         <v>648</v>
       </c>
       <c r="E645" t="s">
-        <v>922</v>
+        <v>936</v>
       </c>
     </row>
     <row r="646" spans="1:5">
@@ -14266,7 +14308,7 @@
         <v>649</v>
       </c>
       <c r="E646" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
     </row>
     <row r="647" spans="1:5">
@@ -14283,7 +14325,7 @@
         <v>650</v>
       </c>
       <c r="E647" t="s">
-        <v>897</v>
+        <v>911</v>
       </c>
     </row>
     <row r="648" spans="1:5">
@@ -14300,7 +14342,7 @@
         <v>651</v>
       </c>
       <c r="E648" t="s">
-        <v>908</v>
+        <v>922</v>
       </c>
     </row>
     <row r="649" spans="1:5">
@@ -14317,7 +14359,7 @@
         <v>652</v>
       </c>
       <c r="E649" t="s">
-        <v>924</v>
+        <v>938</v>
       </c>
     </row>
     <row r="650" spans="1:5">
@@ -14334,7 +14376,7 @@
         <v>653</v>
       </c>
       <c r="E650" t="s">
-        <v>924</v>
+        <v>938</v>
       </c>
     </row>
     <row r="651" spans="1:5">
@@ -14351,7 +14393,7 @@
         <v>654</v>
       </c>
       <c r="E651" t="s">
-        <v>924</v>
+        <v>938</v>
       </c>
     </row>
     <row r="652" spans="1:5">
@@ -14368,7 +14410,7 @@
         <v>655</v>
       </c>
       <c r="E652" t="s">
-        <v>924</v>
+        <v>938</v>
       </c>
     </row>
     <row r="653" spans="1:5">
@@ -14385,7 +14427,7 @@
         <v>656</v>
       </c>
       <c r="E653" t="s">
-        <v>925</v>
+        <v>939</v>
       </c>
     </row>
     <row r="654" spans="1:5">
@@ -14402,7 +14444,7 @@
         <v>657</v>
       </c>
       <c r="E654" t="s">
-        <v>907</v>
+        <v>921</v>
       </c>
     </row>
     <row r="655" spans="1:5">
@@ -14419,7 +14461,7 @@
         <v>658</v>
       </c>
       <c r="E655" t="s">
-        <v>907</v>
+        <v>921</v>
       </c>
     </row>
     <row r="656" spans="1:5">
@@ -14436,7 +14478,7 @@
         <v>659</v>
       </c>
       <c r="E656" t="s">
-        <v>907</v>
+        <v>921</v>
       </c>
     </row>
     <row r="657" spans="1:5">
@@ -14453,7 +14495,7 @@
         <v>660</v>
       </c>
       <c r="E657" t="s">
-        <v>924</v>
+        <v>938</v>
       </c>
     </row>
     <row r="658" spans="1:5">
@@ -14470,7 +14512,7 @@
         <v>661</v>
       </c>
       <c r="E658" t="s">
-        <v>924</v>
+        <v>938</v>
       </c>
     </row>
     <row r="659" spans="1:5">
@@ -14487,7 +14529,7 @@
         <v>662</v>
       </c>
       <c r="E659" t="s">
-        <v>924</v>
+        <v>938</v>
       </c>
     </row>
     <row r="660" spans="1:5">
@@ -14504,7 +14546,7 @@
         <v>663</v>
       </c>
       <c r="E660" t="s">
-        <v>925</v>
+        <v>939</v>
       </c>
     </row>
     <row r="661" spans="1:5">
@@ -14521,7 +14563,7 @@
         <v>664</v>
       </c>
       <c r="E661" t="s">
-        <v>927</v>
+        <v>941</v>
       </c>
     </row>
     <row r="662" spans="1:5">
@@ -14538,7 +14580,7 @@
         <v>665</v>
       </c>
       <c r="E662" t="s">
-        <v>907</v>
+        <v>921</v>
       </c>
     </row>
     <row r="663" spans="1:5">
@@ -14555,7 +14597,7 @@
         <v>666</v>
       </c>
       <c r="E663" t="s">
-        <v>925</v>
+        <v>939</v>
       </c>
     </row>
     <row r="664" spans="1:5">
@@ -14572,7 +14614,7 @@
         <v>667</v>
       </c>
       <c r="E664" t="s">
-        <v>925</v>
+        <v>939</v>
       </c>
     </row>
     <row r="665" spans="1:5">
@@ -14589,7 +14631,7 @@
         <v>668</v>
       </c>
       <c r="E665" t="s">
-        <v>927</v>
+        <v>941</v>
       </c>
     </row>
     <row r="666" spans="1:5">
@@ -14606,7 +14648,7 @@
         <v>669</v>
       </c>
       <c r="E666" t="s">
-        <v>898</v>
+        <v>912</v>
       </c>
     </row>
     <row r="667" spans="1:5">
@@ -14623,7 +14665,7 @@
         <v>670</v>
       </c>
       <c r="E667" t="s">
-        <v>906</v>
+        <v>920</v>
       </c>
     </row>
     <row r="668" spans="1:5">
@@ -14640,7 +14682,7 @@
         <v>671</v>
       </c>
       <c r="E668" t="s">
-        <v>899</v>
+        <v>913</v>
       </c>
     </row>
     <row r="669" spans="1:5">
@@ -14657,7 +14699,7 @@
         <v>672</v>
       </c>
       <c r="E669" t="s">
-        <v>898</v>
+        <v>912</v>
       </c>
     </row>
     <row r="670" spans="1:5">
@@ -14674,7 +14716,7 @@
         <v>673</v>
       </c>
       <c r="E670" t="s">
-        <v>898</v>
+        <v>912</v>
       </c>
     </row>
     <row r="671" spans="1:5">
@@ -14691,7 +14733,7 @@
         <v>674</v>
       </c>
       <c r="E671" t="s">
-        <v>927</v>
+        <v>941</v>
       </c>
     </row>
     <row r="672" spans="1:5">
@@ -14708,7 +14750,7 @@
         <v>675</v>
       </c>
       <c r="E672" t="s">
-        <v>907</v>
+        <v>921</v>
       </c>
     </row>
     <row r="673" spans="1:5">
@@ -14725,7 +14767,7 @@
         <v>676</v>
       </c>
       <c r="E673" t="s">
-        <v>924</v>
+        <v>938</v>
       </c>
     </row>
     <row r="674" spans="1:5">
@@ -14742,7 +14784,7 @@
         <v>677</v>
       </c>
       <c r="E674" t="s">
-        <v>924</v>
+        <v>938</v>
       </c>
     </row>
     <row r="675" spans="1:5">
@@ -14759,7 +14801,7 @@
         <v>678</v>
       </c>
       <c r="E675" t="s">
-        <v>926</v>
+        <v>940</v>
       </c>
     </row>
     <row r="676" spans="1:5">
@@ -14776,7 +14818,7 @@
         <v>679</v>
       </c>
       <c r="E676" t="s">
-        <v>907</v>
+        <v>921</v>
       </c>
     </row>
     <row r="677" spans="1:5">
@@ -14793,7 +14835,7 @@
         <v>680</v>
       </c>
       <c r="E677" t="s">
-        <v>926</v>
+        <v>940</v>
       </c>
     </row>
     <row r="678" spans="1:5">
@@ -14810,7 +14852,7 @@
         <v>681</v>
       </c>
       <c r="E678" t="s">
-        <v>926</v>
+        <v>940</v>
       </c>
     </row>
     <row r="679" spans="1:5">
@@ -14827,7 +14869,7 @@
         <v>682</v>
       </c>
       <c r="E679" t="s">
-        <v>926</v>
+        <v>940</v>
       </c>
     </row>
     <row r="680" spans="1:5">
@@ -14844,7 +14886,7 @@
         <v>683</v>
       </c>
       <c r="E680" t="s">
-        <v>908</v>
+        <v>922</v>
       </c>
     </row>
     <row r="681" spans="1:5">
@@ -14861,7 +14903,7 @@
         <v>684</v>
       </c>
       <c r="E681" t="s">
-        <v>909</v>
+        <v>923</v>
       </c>
     </row>
     <row r="682" spans="1:5">
@@ -14878,7 +14920,7 @@
         <v>685</v>
       </c>
       <c r="E682" t="s">
-        <v>909</v>
+        <v>923</v>
       </c>
     </row>
     <row r="683" spans="1:5">
@@ -14895,7 +14937,7 @@
         <v>686</v>
       </c>
       <c r="E683" t="s">
-        <v>908</v>
+        <v>922</v>
       </c>
     </row>
     <row r="684" spans="1:5">
@@ -14912,7 +14954,7 @@
         <v>687</v>
       </c>
       <c r="E684" t="s">
-        <v>909</v>
+        <v>923</v>
       </c>
     </row>
     <row r="685" spans="1:5">
@@ -14929,7 +14971,7 @@
         <v>688</v>
       </c>
       <c r="E685" t="s">
-        <v>909</v>
+        <v>923</v>
       </c>
     </row>
     <row r="686" spans="1:5">
@@ -14946,7 +14988,7 @@
         <v>689</v>
       </c>
       <c r="E686" t="s">
-        <v>897</v>
+        <v>911</v>
       </c>
     </row>
     <row r="687" spans="1:5">
@@ -14963,7 +15005,7 @@
         <v>690</v>
       </c>
       <c r="E687" t="s">
-        <v>909</v>
+        <v>923</v>
       </c>
     </row>
     <row r="688" spans="1:5">
@@ -14980,7 +15022,7 @@
         <v>691</v>
       </c>
       <c r="E688" t="s">
-        <v>923</v>
+        <v>937</v>
       </c>
     </row>
     <row r="689" spans="1:5">
@@ -14997,7 +15039,7 @@
         <v>692</v>
       </c>
       <c r="E689" t="s">
-        <v>923</v>
+        <v>937</v>
       </c>
     </row>
     <row r="690" spans="1:5">
@@ -15014,7 +15056,7 @@
         <v>693</v>
       </c>
       <c r="E690" t="s">
-        <v>930</v>
+        <v>944</v>
       </c>
     </row>
     <row r="691" spans="1:5">
@@ -15031,7 +15073,7 @@
         <v>694</v>
       </c>
       <c r="E691" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
     </row>
     <row r="692" spans="1:5">
@@ -15048,7 +15090,7 @@
         <v>695</v>
       </c>
       <c r="E692" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
     </row>
     <row r="693" spans="1:5">
@@ -15065,7 +15107,7 @@
         <v>696</v>
       </c>
       <c r="E693" t="s">
-        <v>922</v>
+        <v>936</v>
       </c>
     </row>
     <row r="694" spans="1:5">
@@ -15082,7 +15124,7 @@
         <v>697</v>
       </c>
       <c r="E694" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
     </row>
     <row r="695" spans="1:5">
@@ -15099,7 +15141,7 @@
         <v>698</v>
       </c>
       <c r="E695" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
     </row>
     <row r="696" spans="1:5">
@@ -15116,7 +15158,7 @@
         <v>699</v>
       </c>
       <c r="E696" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
     </row>
     <row r="697" spans="1:5">
@@ -15133,7 +15175,7 @@
         <v>700</v>
       </c>
       <c r="E697" t="s">
-        <v>922</v>
+        <v>936</v>
       </c>
     </row>
     <row r="698" spans="1:5">
@@ -15150,7 +15192,7 @@
         <v>701</v>
       </c>
       <c r="E698" t="s">
-        <v>895</v>
+        <v>909</v>
       </c>
     </row>
     <row r="699" spans="1:5">
@@ -15167,7 +15209,7 @@
         <v>702</v>
       </c>
       <c r="E699" t="s">
-        <v>935</v>
+        <v>949</v>
       </c>
     </row>
     <row r="700" spans="1:5">
@@ -15184,7 +15226,7 @@
         <v>703</v>
       </c>
       <c r="E700" t="s">
-        <v>895</v>
+        <v>909</v>
       </c>
     </row>
     <row r="701" spans="1:5">
@@ -15201,7 +15243,7 @@
         <v>704</v>
       </c>
       <c r="E701" t="s">
-        <v>895</v>
+        <v>909</v>
       </c>
     </row>
     <row r="702" spans="1:5">
@@ -15218,7 +15260,7 @@
         <v>705</v>
       </c>
       <c r="E702" t="s">
-        <v>928</v>
+        <v>942</v>
       </c>
     </row>
     <row r="703" spans="1:5">
@@ -15235,7 +15277,7 @@
         <v>706</v>
       </c>
       <c r="E703" t="s">
-        <v>928</v>
+        <v>942</v>
       </c>
     </row>
     <row r="704" spans="1:5">
@@ -15252,7 +15294,7 @@
         <v>707</v>
       </c>
       <c r="E704" t="s">
-        <v>895</v>
+        <v>909</v>
       </c>
     </row>
     <row r="705" spans="1:5">
@@ -15269,7 +15311,7 @@
         <v>708</v>
       </c>
       <c r="E705" t="s">
-        <v>895</v>
+        <v>909</v>
       </c>
     </row>
     <row r="706" spans="1:5">
@@ -15286,7 +15328,7 @@
         <v>709</v>
       </c>
       <c r="E706" t="s">
-        <v>910</v>
+        <v>924</v>
       </c>
     </row>
     <row r="707" spans="1:5">
@@ -15303,7 +15345,7 @@
         <v>710</v>
       </c>
       <c r="E707" t="s">
-        <v>911</v>
+        <v>925</v>
       </c>
     </row>
     <row r="708" spans="1:5">
@@ -15320,7 +15362,7 @@
         <v>711</v>
       </c>
       <c r="E708" t="s">
-        <v>910</v>
+        <v>924</v>
       </c>
     </row>
     <row r="709" spans="1:5">
@@ -15337,7 +15379,7 @@
         <v>712</v>
       </c>
       <c r="E709" t="s">
-        <v>911</v>
+        <v>925</v>
       </c>
     </row>
     <row r="710" spans="1:5">
@@ -15354,7 +15396,7 @@
         <v>713</v>
       </c>
       <c r="E710" t="s">
-        <v>928</v>
+        <v>942</v>
       </c>
     </row>
     <row r="711" spans="1:5">
@@ -15371,7 +15413,7 @@
         <v>714</v>
       </c>
       <c r="E711" t="s">
-        <v>910</v>
+        <v>924</v>
       </c>
     </row>
     <row r="712" spans="1:5">
@@ -15388,7 +15430,7 @@
         <v>715</v>
       </c>
       <c r="E712" t="s">
-        <v>911</v>
+        <v>925</v>
       </c>
     </row>
     <row r="713" spans="1:5">
@@ -15405,7 +15447,7 @@
         <v>716</v>
       </c>
       <c r="E713" t="s">
-        <v>910</v>
+        <v>924</v>
       </c>
     </row>
     <row r="714" spans="1:5">
@@ -15422,7 +15464,7 @@
         <v>717</v>
       </c>
       <c r="E714" t="s">
-        <v>911</v>
+        <v>925</v>
       </c>
     </row>
     <row r="715" spans="1:5">
@@ -15439,7 +15481,7 @@
         <v>718</v>
       </c>
       <c r="E715" t="s">
-        <v>928</v>
+        <v>942</v>
       </c>
     </row>
     <row r="716" spans="1:5">
@@ -15456,7 +15498,7 @@
         <v>719</v>
       </c>
       <c r="E716" t="s">
-        <v>895</v>
+        <v>909</v>
       </c>
     </row>
     <row r="717" spans="1:5">
@@ -15473,7 +15515,7 @@
         <v>720</v>
       </c>
       <c r="E717" t="s">
-        <v>928</v>
+        <v>942</v>
       </c>
     </row>
     <row r="718" spans="1:5">
@@ -15490,7 +15532,7 @@
         <v>721</v>
       </c>
       <c r="E718" t="s">
-        <v>895</v>
+        <v>909</v>
       </c>
     </row>
     <row r="719" spans="1:5">
@@ -15507,7 +15549,7 @@
         <v>722</v>
       </c>
       <c r="E719" t="s">
-        <v>895</v>
+        <v>909</v>
       </c>
     </row>
     <row r="720" spans="1:5">
@@ -15524,7 +15566,7 @@
         <v>723</v>
       </c>
       <c r="E720" t="s">
-        <v>895</v>
+        <v>909</v>
       </c>
     </row>
     <row r="721" spans="1:5">
@@ -15541,7 +15583,7 @@
         <v>724</v>
       </c>
       <c r="E721" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
     </row>
     <row r="722" spans="1:5">
@@ -15558,7 +15600,7 @@
         <v>725</v>
       </c>
       <c r="E722" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
     </row>
     <row r="723" spans="1:5">
@@ -15575,7 +15617,7 @@
         <v>726</v>
       </c>
       <c r="E723" t="s">
-        <v>922</v>
+        <v>936</v>
       </c>
     </row>
     <row r="724" spans="1:5">
@@ -15592,7 +15634,7 @@
         <v>727</v>
       </c>
       <c r="E724" t="s">
-        <v>930</v>
+        <v>944</v>
       </c>
     </row>
     <row r="725" spans="1:5">
@@ -15609,7 +15651,7 @@
         <v>728</v>
       </c>
       <c r="E725" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
     </row>
     <row r="726" spans="1:5">
@@ -15626,7 +15668,7 @@
         <v>729</v>
       </c>
       <c r="E726" t="s">
-        <v>909</v>
+        <v>923</v>
       </c>
     </row>
     <row r="727" spans="1:5">
@@ -15643,7 +15685,7 @@
         <v>730</v>
       </c>
       <c r="E727" t="s">
-        <v>926</v>
+        <v>940</v>
       </c>
     </row>
     <row r="728" spans="1:5">
@@ -15660,7 +15702,7 @@
         <v>731</v>
       </c>
       <c r="E728" t="s">
-        <v>907</v>
+        <v>921</v>
       </c>
     </row>
     <row r="729" spans="1:5">
@@ -15677,7 +15719,7 @@
         <v>732</v>
       </c>
       <c r="E729" t="s">
-        <v>898</v>
+        <v>912</v>
       </c>
     </row>
     <row r="730" spans="1:5">
@@ -15694,7 +15736,7 @@
         <v>733</v>
       </c>
       <c r="E730" t="s">
-        <v>898</v>
+        <v>912</v>
       </c>
     </row>
     <row r="731" spans="1:5">
@@ -15711,7 +15753,7 @@
         <v>734</v>
       </c>
       <c r="E731" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="732" spans="1:5">
@@ -15728,7 +15770,7 @@
         <v>735</v>
       </c>
       <c r="E732" t="s">
-        <v>901</v>
+        <v>915</v>
       </c>
     </row>
     <row r="733" spans="1:5">
@@ -15745,7 +15787,7 @@
         <v>736</v>
       </c>
       <c r="E733" t="s">
-        <v>932</v>
+        <v>946</v>
       </c>
     </row>
     <row r="734" spans="1:5">
@@ -15762,7 +15804,7 @@
         <v>737</v>
       </c>
       <c r="E734" t="s">
-        <v>948</v>
+        <v>962</v>
       </c>
     </row>
     <row r="735" spans="1:5">
@@ -15779,7 +15821,7 @@
         <v>738</v>
       </c>
       <c r="E735" t="s">
-        <v>944</v>
+        <v>958</v>
       </c>
     </row>
     <row r="736" spans="1:5">
@@ -15796,7 +15838,7 @@
         <v>739</v>
       </c>
       <c r="E736" t="s">
-        <v>963</v>
+        <v>977</v>
       </c>
     </row>
     <row r="737" spans="1:5">
@@ -15813,7 +15855,7 @@
         <v>740</v>
       </c>
       <c r="E737" t="s">
-        <v>942</v>
+        <v>956</v>
       </c>
     </row>
     <row r="738" spans="1:5">
@@ -15830,7 +15872,7 @@
         <v>741</v>
       </c>
       <c r="E738" t="s">
-        <v>952</v>
+        <v>966</v>
       </c>
     </row>
     <row r="739" spans="1:5">
@@ -15847,7 +15889,7 @@
         <v>742</v>
       </c>
       <c r="E739" t="s">
-        <v>960</v>
+        <v>974</v>
       </c>
     </row>
     <row r="740" spans="1:5">
@@ -15864,7 +15906,7 @@
         <v>743</v>
       </c>
       <c r="E740" t="s">
-        <v>960</v>
+        <v>974</v>
       </c>
     </row>
     <row r="741" spans="1:5">
@@ -15881,7 +15923,7 @@
         <v>744</v>
       </c>
       <c r="E741" t="s">
-        <v>953</v>
+        <v>967</v>
       </c>
     </row>
     <row r="742" spans="1:5">
@@ -15898,7 +15940,7 @@
         <v>745</v>
       </c>
       <c r="E742" t="s">
-        <v>954</v>
+        <v>968</v>
       </c>
     </row>
     <row r="743" spans="1:5">
@@ -15915,7 +15957,7 @@
         <v>746</v>
       </c>
       <c r="E743" t="s">
-        <v>964</v>
+        <v>978</v>
       </c>
     </row>
     <row r="744" spans="1:5">
@@ -15932,7 +15974,7 @@
         <v>747</v>
       </c>
       <c r="E744" t="s">
-        <v>965</v>
+        <v>979</v>
       </c>
     </row>
     <row r="745" spans="1:5">
@@ -15949,7 +15991,7 @@
         <v>748</v>
       </c>
       <c r="E745" t="s">
-        <v>965</v>
+        <v>979</v>
       </c>
     </row>
     <row r="746" spans="1:5">
@@ -15966,7 +16008,7 @@
         <v>749</v>
       </c>
       <c r="E746" t="s">
-        <v>954</v>
+        <v>968</v>
       </c>
     </row>
     <row r="747" spans="1:5">
@@ -15983,7 +16025,7 @@
         <v>750</v>
       </c>
       <c r="E747" t="s">
-        <v>954</v>
+        <v>968</v>
       </c>
     </row>
     <row r="748" spans="1:5">
@@ -16000,7 +16042,7 @@
         <v>751</v>
       </c>
       <c r="E748" t="s">
-        <v>965</v>
+        <v>979</v>
       </c>
     </row>
     <row r="749" spans="1:5">
@@ -16017,7 +16059,7 @@
         <v>752</v>
       </c>
       <c r="E749" t="s">
-        <v>965</v>
+        <v>979</v>
       </c>
     </row>
     <row r="750" spans="1:5">
@@ -16034,7 +16076,7 @@
         <v>753</v>
       </c>
       <c r="E750" t="s">
-        <v>953</v>
+        <v>967</v>
       </c>
     </row>
     <row r="751" spans="1:5">
@@ -16051,7 +16093,7 @@
         <v>754</v>
       </c>
       <c r="E751" t="s">
-        <v>952</v>
+        <v>966</v>
       </c>
     </row>
     <row r="752" spans="1:5">
@@ -16068,7 +16110,7 @@
         <v>755</v>
       </c>
       <c r="E752" t="s">
-        <v>952</v>
+        <v>966</v>
       </c>
     </row>
     <row r="753" spans="1:5">
@@ -16085,7 +16127,7 @@
         <v>756</v>
       </c>
       <c r="E753" t="s">
-        <v>960</v>
+        <v>974</v>
       </c>
     </row>
     <row r="754" spans="1:5">
@@ -16102,7 +16144,7 @@
         <v>757</v>
       </c>
       <c r="E754" t="s">
-        <v>960</v>
+        <v>974</v>
       </c>
     </row>
     <row r="755" spans="1:5">
@@ -16119,7 +16161,7 @@
         <v>758</v>
       </c>
       <c r="E755" t="s">
-        <v>952</v>
+        <v>966</v>
       </c>
     </row>
     <row r="756" spans="1:5">
@@ -16136,7 +16178,7 @@
         <v>759</v>
       </c>
       <c r="E756" t="s">
-        <v>954</v>
+        <v>968</v>
       </c>
     </row>
     <row r="757" spans="1:5">
@@ -16153,7 +16195,7 @@
         <v>760</v>
       </c>
       <c r="E757" t="s">
-        <v>951</v>
+        <v>965</v>
       </c>
     </row>
     <row r="758" spans="1:5">
@@ -16170,7 +16212,7 @@
         <v>761</v>
       </c>
       <c r="E758" t="s">
-        <v>966</v>
+        <v>980</v>
       </c>
     </row>
     <row r="759" spans="1:5">
@@ -16187,7 +16229,7 @@
         <v>762</v>
       </c>
       <c r="E759" t="s">
-        <v>942</v>
+        <v>956</v>
       </c>
     </row>
     <row r="760" spans="1:5">
@@ -16204,7 +16246,7 @@
         <v>763</v>
       </c>
       <c r="E760" t="s">
-        <v>942</v>
+        <v>956</v>
       </c>
     </row>
     <row r="761" spans="1:5">
@@ -16221,7 +16263,7 @@
         <v>764</v>
       </c>
       <c r="E761" t="s">
-        <v>966</v>
+        <v>980</v>
       </c>
     </row>
     <row r="762" spans="1:5">
@@ -16238,7 +16280,7 @@
         <v>765</v>
       </c>
       <c r="E762" t="s">
-        <v>942</v>
+        <v>956</v>
       </c>
     </row>
     <row r="763" spans="1:5">
@@ -16255,7 +16297,7 @@
         <v>766</v>
       </c>
       <c r="E763" t="s">
-        <v>966</v>
+        <v>980</v>
       </c>
     </row>
     <row r="764" spans="1:5">
@@ -16272,7 +16314,7 @@
         <v>767</v>
       </c>
       <c r="E764" t="s">
-        <v>942</v>
+        <v>956</v>
       </c>
     </row>
     <row r="765" spans="1:5">
@@ -16289,7 +16331,7 @@
         <v>768</v>
       </c>
       <c r="E765" t="s">
-        <v>942</v>
+        <v>956</v>
       </c>
     </row>
     <row r="766" spans="1:5">
@@ -16306,7 +16348,7 @@
         <v>769</v>
       </c>
       <c r="E766" t="s">
-        <v>942</v>
+        <v>956</v>
       </c>
     </row>
     <row r="767" spans="1:5">
@@ -16323,7 +16365,7 @@
         <v>770</v>
       </c>
       <c r="E767" t="s">
-        <v>941</v>
+        <v>955</v>
       </c>
     </row>
     <row r="768" spans="1:5">
@@ -16340,7 +16382,7 @@
         <v>771</v>
       </c>
       <c r="E768" t="s">
-        <v>940</v>
+        <v>954</v>
       </c>
     </row>
     <row r="769" spans="1:5">
@@ -16357,7 +16399,7 @@
         <v>772</v>
       </c>
       <c r="E769" t="s">
-        <v>949</v>
+        <v>963</v>
       </c>
     </row>
     <row r="770" spans="1:5">
@@ -16374,7 +16416,7 @@
         <v>773</v>
       </c>
       <c r="E770" t="s">
-        <v>944</v>
+        <v>958</v>
       </c>
     </row>
     <row r="771" spans="1:5">
@@ -16391,7 +16433,7 @@
         <v>774</v>
       </c>
       <c r="E771" t="s">
-        <v>944</v>
+        <v>958</v>
       </c>
     </row>
     <row r="772" spans="1:5">
@@ -16408,7 +16450,7 @@
         <v>775</v>
       </c>
       <c r="E772" t="s">
-        <v>945</v>
+        <v>959</v>
       </c>
     </row>
     <row r="773" spans="1:5">
@@ -16425,7 +16467,7 @@
         <v>776</v>
       </c>
       <c r="E773" t="s">
-        <v>945</v>
+        <v>959</v>
       </c>
     </row>
     <row r="774" spans="1:5">
@@ -16442,7 +16484,7 @@
         <v>777</v>
       </c>
       <c r="E774" t="s">
-        <v>945</v>
+        <v>959</v>
       </c>
     </row>
     <row r="775" spans="1:5">
@@ -16459,7 +16501,7 @@
         <v>778</v>
       </c>
       <c r="E775" t="s">
-        <v>945</v>
+        <v>959</v>
       </c>
     </row>
     <row r="776" spans="1:5">
@@ -16476,7 +16518,7 @@
         <v>779</v>
       </c>
       <c r="E776" t="s">
-        <v>945</v>
+        <v>959</v>
       </c>
     </row>
     <row r="777" spans="1:5">
@@ -16493,7 +16535,7 @@
         <v>780</v>
       </c>
       <c r="E777" t="s">
-        <v>939</v>
+        <v>953</v>
       </c>
     </row>
     <row r="778" spans="1:5">
@@ -16510,7 +16552,7 @@
         <v>781</v>
       </c>
       <c r="E778" t="s">
-        <v>948</v>
+        <v>962</v>
       </c>
     </row>
     <row r="779" spans="1:5">
@@ -16527,7 +16569,7 @@
         <v>782</v>
       </c>
       <c r="E779" t="s">
-        <v>948</v>
+        <v>962</v>
       </c>
     </row>
     <row r="780" spans="1:5">
@@ -16544,7 +16586,7 @@
         <v>783</v>
       </c>
       <c r="E780" t="s">
-        <v>946</v>
+        <v>960</v>
       </c>
     </row>
     <row r="781" spans="1:5">
@@ -16561,7 +16603,7 @@
         <v>784</v>
       </c>
       <c r="E781" t="s">
-        <v>903</v>
+        <v>917</v>
       </c>
     </row>
     <row r="782" spans="1:5">
@@ -16578,7 +16620,7 @@
         <v>785</v>
       </c>
       <c r="E782" t="s">
-        <v>962</v>
+        <v>976</v>
       </c>
     </row>
     <row r="783" spans="1:5">
@@ -16595,7 +16637,7 @@
         <v>786</v>
       </c>
       <c r="E783" t="s">
-        <v>946</v>
+        <v>960</v>
       </c>
     </row>
     <row r="784" spans="1:5">
@@ -16612,7 +16654,7 @@
         <v>787</v>
       </c>
       <c r="E784" t="s">
-        <v>933</v>
+        <v>947</v>
       </c>
     </row>
     <row r="785" spans="1:5">
@@ -16629,7 +16671,7 @@
         <v>788</v>
       </c>
       <c r="E785" t="s">
-        <v>947</v>
+        <v>961</v>
       </c>
     </row>
     <row r="786" spans="1:5">
@@ -16646,7 +16688,7 @@
         <v>789</v>
       </c>
       <c r="E786" t="s">
-        <v>933</v>
+        <v>947</v>
       </c>
     </row>
     <row r="787" spans="1:5">
@@ -16663,7 +16705,7 @@
         <v>790</v>
       </c>
       <c r="E787" t="s">
-        <v>933</v>
+        <v>947</v>
       </c>
     </row>
     <row r="788" spans="1:5">
@@ -16680,7 +16722,7 @@
         <v>791</v>
       </c>
       <c r="E788" t="s">
-        <v>932</v>
+        <v>946</v>
       </c>
     </row>
     <row r="789" spans="1:5">
@@ -16697,7 +16739,7 @@
         <v>792</v>
       </c>
       <c r="E789" t="s">
-        <v>938</v>
+        <v>952</v>
       </c>
     </row>
     <row r="790" spans="1:5">
@@ -16714,7 +16756,7 @@
         <v>793</v>
       </c>
       <c r="E790" t="s">
-        <v>938</v>
+        <v>952</v>
       </c>
     </row>
     <row r="791" spans="1:5">
@@ -16731,7 +16773,7 @@
         <v>794</v>
       </c>
       <c r="E791" t="s">
-        <v>938</v>
+        <v>952</v>
       </c>
     </row>
     <row r="792" spans="1:5">
@@ -16748,7 +16790,7 @@
         <v>795</v>
       </c>
       <c r="E792" t="s">
-        <v>936</v>
+        <v>950</v>
       </c>
     </row>
     <row r="793" spans="1:5">
@@ -16765,7 +16807,7 @@
         <v>796</v>
       </c>
       <c r="E793" t="s">
-        <v>900</v>
+        <v>914</v>
       </c>
     </row>
     <row r="794" spans="1:5">
@@ -16782,7 +16824,7 @@
         <v>797</v>
       </c>
       <c r="E794" t="s">
-        <v>902</v>
+        <v>916</v>
       </c>
     </row>
     <row r="795" spans="1:5">
@@ -16799,7 +16841,7 @@
         <v>798</v>
       </c>
       <c r="E795" t="s">
-        <v>900</v>
+        <v>914</v>
       </c>
     </row>
     <row r="796" spans="1:5">
@@ -16816,7 +16858,7 @@
         <v>799</v>
       </c>
       <c r="E796" t="s">
-        <v>900</v>
+        <v>914</v>
       </c>
     </row>
     <row r="797" spans="1:5">
@@ -16833,7 +16875,7 @@
         <v>800</v>
       </c>
       <c r="E797" t="s">
-        <v>899</v>
+        <v>913</v>
       </c>
     </row>
     <row r="798" spans="1:5">
@@ -16850,7 +16892,7 @@
         <v>801</v>
       </c>
       <c r="E798" t="s">
-        <v>906</v>
+        <v>920</v>
       </c>
     </row>
     <row r="799" spans="1:5">
@@ -16867,7 +16909,7 @@
         <v>802</v>
       </c>
       <c r="E799" t="s">
-        <v>898</v>
+        <v>912</v>
       </c>
     </row>
     <row r="800" spans="1:5">
@@ -16884,7 +16926,7 @@
         <v>803</v>
       </c>
       <c r="E800" t="s">
-        <v>899</v>
+        <v>913</v>
       </c>
     </row>
     <row r="801" spans="1:5">
@@ -16901,7 +16943,7 @@
         <v>804</v>
       </c>
       <c r="E801" t="s">
-        <v>898</v>
+        <v>912</v>
       </c>
     </row>
     <row r="802" spans="1:5">
@@ -16918,7 +16960,7 @@
         <v>805</v>
       </c>
       <c r="E802" t="s">
-        <v>925</v>
+        <v>939</v>
       </c>
     </row>
     <row r="803" spans="1:5">
@@ -16935,7 +16977,7 @@
         <v>806</v>
       </c>
       <c r="E803" t="s">
-        <v>924</v>
+        <v>938</v>
       </c>
     </row>
     <row r="804" spans="1:5">
@@ -16952,7 +16994,7 @@
         <v>807</v>
       </c>
       <c r="E804" t="s">
-        <v>907</v>
+        <v>921</v>
       </c>
     </row>
     <row r="805" spans="1:5">
@@ -16969,7 +17011,7 @@
         <v>808</v>
       </c>
       <c r="E805" t="s">
-        <v>926</v>
+        <v>940</v>
       </c>
     </row>
     <row r="806" spans="1:5">
@@ -16986,7 +17028,7 @@
         <v>809</v>
       </c>
       <c r="E806" t="s">
-        <v>924</v>
+        <v>938</v>
       </c>
     </row>
     <row r="807" spans="1:5">
@@ -17003,7 +17045,7 @@
         <v>810</v>
       </c>
       <c r="E807" t="s">
-        <v>908</v>
+        <v>922</v>
       </c>
     </row>
     <row r="808" spans="1:5">
@@ -17020,7 +17062,7 @@
         <v>811</v>
       </c>
       <c r="E808" t="s">
-        <v>909</v>
+        <v>923</v>
       </c>
     </row>
     <row r="809" spans="1:5">
@@ -17037,7 +17079,7 @@
         <v>812</v>
       </c>
       <c r="E809" t="s">
-        <v>909</v>
+        <v>923</v>
       </c>
     </row>
     <row r="810" spans="1:5">
@@ -17054,7 +17096,7 @@
         <v>813</v>
       </c>
       <c r="E810" t="s">
-        <v>926</v>
+        <v>940</v>
       </c>
     </row>
     <row r="811" spans="1:5">
@@ -17071,7 +17113,7 @@
         <v>814</v>
       </c>
       <c r="E811" t="s">
-        <v>897</v>
+        <v>911</v>
       </c>
     </row>
     <row r="812" spans="1:5">
@@ -17088,7 +17130,7 @@
         <v>815</v>
       </c>
       <c r="E812" t="s">
-        <v>923</v>
+        <v>937</v>
       </c>
     </row>
     <row r="813" spans="1:5">
@@ -17105,7 +17147,7 @@
         <v>816</v>
       </c>
       <c r="E813" t="s">
-        <v>930</v>
+        <v>944</v>
       </c>
     </row>
     <row r="814" spans="1:5">
@@ -17122,7 +17164,7 @@
         <v>817</v>
       </c>
       <c r="E814" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
     </row>
     <row r="815" spans="1:5">
@@ -17139,7 +17181,7 @@
         <v>818</v>
       </c>
       <c r="E815" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
     </row>
     <row r="816" spans="1:5">
@@ -17156,7 +17198,7 @@
         <v>819</v>
       </c>
       <c r="E816" t="s">
-        <v>930</v>
+        <v>944</v>
       </c>
     </row>
     <row r="817" spans="1:5">
@@ -17173,7 +17215,7 @@
         <v>820</v>
       </c>
       <c r="E817" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
     </row>
     <row r="818" spans="1:5">
@@ -17190,7 +17232,7 @@
         <v>821</v>
       </c>
       <c r="E818" t="s">
-        <v>935</v>
+        <v>949</v>
       </c>
     </row>
     <row r="819" spans="1:5">
@@ -17207,7 +17249,7 @@
         <v>822</v>
       </c>
       <c r="E819" t="s">
-        <v>922</v>
+        <v>936</v>
       </c>
     </row>
     <row r="820" spans="1:5">
@@ -17224,7 +17266,7 @@
         <v>823</v>
       </c>
       <c r="E820" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
     </row>
     <row r="821" spans="1:5">
@@ -17241,7 +17283,7 @@
         <v>824</v>
       </c>
       <c r="E821" t="s">
-        <v>930</v>
+        <v>944</v>
       </c>
     </row>
     <row r="822" spans="1:5">
@@ -17258,7 +17300,7 @@
         <v>825</v>
       </c>
       <c r="E822" t="s">
-        <v>935</v>
+        <v>949</v>
       </c>
     </row>
     <row r="823" spans="1:5">
@@ -17275,7 +17317,7 @@
         <v>826</v>
       </c>
       <c r="E823" t="s">
-        <v>922</v>
+        <v>936</v>
       </c>
     </row>
     <row r="824" spans="1:5">
@@ -17292,7 +17334,7 @@
         <v>827</v>
       </c>
       <c r="E824" t="s">
-        <v>935</v>
+        <v>949</v>
       </c>
     </row>
     <row r="825" spans="1:5">
@@ -17309,7 +17351,7 @@
         <v>828</v>
       </c>
       <c r="E825" t="s">
-        <v>922</v>
+        <v>936</v>
       </c>
     </row>
     <row r="826" spans="1:5">
@@ -17326,7 +17368,7 @@
         <v>829</v>
       </c>
       <c r="E826" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
     </row>
     <row r="827" spans="1:5">
@@ -17343,7 +17385,7 @@
         <v>830</v>
       </c>
       <c r="E827" t="s">
-        <v>922</v>
+        <v>936</v>
       </c>
     </row>
     <row r="828" spans="1:5">
@@ -17360,7 +17402,7 @@
         <v>831</v>
       </c>
       <c r="E828" t="s">
-        <v>895</v>
+        <v>909</v>
       </c>
     </row>
     <row r="829" spans="1:5">
@@ -17377,7 +17419,7 @@
         <v>832</v>
       </c>
       <c r="E829" t="s">
-        <v>895</v>
+        <v>909</v>
       </c>
     </row>
     <row r="830" spans="1:5">
@@ -17394,7 +17436,7 @@
         <v>833</v>
       </c>
       <c r="E830" t="s">
-        <v>895</v>
+        <v>909</v>
       </c>
     </row>
     <row r="831" spans="1:5">
@@ -17411,7 +17453,7 @@
         <v>834</v>
       </c>
       <c r="E831" t="s">
-        <v>928</v>
+        <v>942</v>
       </c>
     </row>
     <row r="832" spans="1:5">
@@ -17428,7 +17470,7 @@
         <v>835</v>
       </c>
       <c r="E832" t="s">
-        <v>911</v>
+        <v>925</v>
       </c>
     </row>
     <row r="833" spans="1:5">
@@ -17445,7 +17487,7 @@
         <v>836</v>
       </c>
       <c r="E833" t="s">
-        <v>910</v>
+        <v>925</v>
       </c>
     </row>
     <row r="834" spans="1:5">
@@ -17462,7 +17504,7 @@
         <v>837</v>
       </c>
       <c r="E834" t="s">
-        <v>911</v>
+        <v>925</v>
       </c>
     </row>
     <row r="835" spans="1:5">
@@ -17479,7 +17521,7 @@
         <v>838</v>
       </c>
       <c r="E835" t="s">
-        <v>894</v>
+        <v>908</v>
       </c>
     </row>
     <row r="836" spans="1:5">
@@ -17496,7 +17538,7 @@
         <v>839</v>
       </c>
       <c r="E836" t="s">
-        <v>894</v>
+        <v>908</v>
       </c>
     </row>
     <row r="837" spans="1:5">
@@ -17513,7 +17555,7 @@
         <v>840</v>
       </c>
       <c r="E837" t="s">
-        <v>911</v>
+        <v>925</v>
       </c>
     </row>
     <row r="838" spans="1:5">
@@ -17530,7 +17572,7 @@
         <v>841</v>
       </c>
       <c r="E838" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
     </row>
     <row r="839" spans="1:5">
@@ -17547,7 +17589,7 @@
         <v>842</v>
       </c>
       <c r="E839" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
     </row>
     <row r="840" spans="1:5">
@@ -17564,7 +17606,7 @@
         <v>843</v>
       </c>
       <c r="E840" t="s">
-        <v>912</v>
+        <v>926</v>
       </c>
     </row>
     <row r="841" spans="1:5">
@@ -17581,7 +17623,7 @@
         <v>844</v>
       </c>
       <c r="E841" t="s">
-        <v>929</v>
+        <v>943</v>
       </c>
     </row>
     <row r="842" spans="1:5">
@@ -17598,7 +17640,7 @@
         <v>845</v>
       </c>
       <c r="E842" t="s">
-        <v>889</v>
+        <v>903</v>
       </c>
     </row>
     <row r="843" spans="1:5">
@@ -17615,7 +17657,7 @@
         <v>846</v>
       </c>
       <c r="E843" t="s">
-        <v>929</v>
+        <v>943</v>
       </c>
     </row>
     <row r="844" spans="1:5">
@@ -17632,7 +17674,7 @@
         <v>847</v>
       </c>
       <c r="E844" t="s">
-        <v>889</v>
+        <v>903</v>
       </c>
     </row>
     <row r="845" spans="1:5">
@@ -17649,7 +17691,7 @@
         <v>848</v>
       </c>
       <c r="E845" t="s">
-        <v>889</v>
+        <v>903</v>
       </c>
     </row>
     <row r="846" spans="1:5">
@@ -17666,7 +17708,7 @@
         <v>849</v>
       </c>
       <c r="E846" t="s">
-        <v>888</v>
+        <v>902</v>
       </c>
     </row>
     <row r="847" spans="1:5">
@@ -17683,7 +17725,7 @@
         <v>850</v>
       </c>
       <c r="E847" t="s">
-        <v>889</v>
+        <v>903</v>
       </c>
     </row>
     <row r="848" spans="1:5">
@@ -17700,7 +17742,7 @@
         <v>851</v>
       </c>
       <c r="E848" t="s">
-        <v>888</v>
+        <v>902</v>
       </c>
     </row>
     <row r="849" spans="1:5">
@@ -17717,7 +17759,7 @@
         <v>852</v>
       </c>
       <c r="E849" t="s">
-        <v>888</v>
+        <v>902</v>
       </c>
     </row>
     <row r="850" spans="1:5">
@@ -17734,7 +17776,7 @@
         <v>853</v>
       </c>
       <c r="E850" t="s">
-        <v>893</v>
+        <v>907</v>
       </c>
     </row>
     <row r="851" spans="1:5">
@@ -17751,7 +17793,7 @@
         <v>854</v>
       </c>
       <c r="E851" t="s">
-        <v>888</v>
+        <v>902</v>
       </c>
     </row>
     <row r="852" spans="1:5">
@@ -17768,7 +17810,7 @@
         <v>855</v>
       </c>
       <c r="E852" t="s">
-        <v>888</v>
+        <v>902</v>
       </c>
     </row>
     <row r="853" spans="1:5">
@@ -17785,7 +17827,7 @@
         <v>856</v>
       </c>
       <c r="E853" t="s">
-        <v>890</v>
+        <v>904</v>
       </c>
     </row>
     <row r="854" spans="1:5">
@@ -17802,7 +17844,7 @@
         <v>857</v>
       </c>
       <c r="E854" t="s">
-        <v>889</v>
+        <v>903</v>
       </c>
     </row>
     <row r="855" spans="1:5">
@@ -17819,7 +17861,7 @@
         <v>858</v>
       </c>
       <c r="E855" t="s">
-        <v>888</v>
+        <v>902</v>
       </c>
     </row>
     <row r="856" spans="1:5">
@@ -17836,7 +17878,7 @@
         <v>859</v>
       </c>
       <c r="E856" t="s">
-        <v>888</v>
+        <v>902</v>
       </c>
     </row>
     <row r="857" spans="1:5">
@@ -17853,7 +17895,7 @@
         <v>860</v>
       </c>
       <c r="E857" t="s">
-        <v>893</v>
+        <v>906</v>
       </c>
     </row>
     <row r="858" spans="1:5">
@@ -17870,7 +17912,7 @@
         <v>861</v>
       </c>
       <c r="E858" t="s">
-        <v>893</v>
+        <v>906</v>
       </c>
     </row>
     <row r="859" spans="1:5">
@@ -17887,7 +17929,7 @@
         <v>862</v>
       </c>
       <c r="E859" t="s">
-        <v>892</v>
+        <v>906</v>
       </c>
     </row>
     <row r="860" spans="1:5">
@@ -17904,7 +17946,7 @@
         <v>863</v>
       </c>
       <c r="E860" t="s">
-        <v>892</v>
+        <v>907</v>
       </c>
     </row>
     <row r="861" spans="1:5">
@@ -17921,7 +17963,7 @@
         <v>864</v>
       </c>
       <c r="E861" t="s">
-        <v>893</v>
+        <v>907</v>
       </c>
     </row>
     <row r="862" spans="1:5">
@@ -17938,7 +17980,7 @@
         <v>865</v>
       </c>
       <c r="E862" t="s">
-        <v>891</v>
+        <v>905</v>
       </c>
     </row>
     <row r="863" spans="1:5">
@@ -17955,7 +17997,7 @@
         <v>866</v>
       </c>
       <c r="E863" t="s">
-        <v>892</v>
+        <v>906</v>
       </c>
     </row>
     <row r="864" spans="1:5">
@@ -17972,7 +18014,7 @@
         <v>867</v>
       </c>
       <c r="E864" t="s">
-        <v>892</v>
+        <v>906</v>
       </c>
     </row>
     <row r="865" spans="1:5">
@@ -17989,7 +18031,7 @@
         <v>868</v>
       </c>
       <c r="E865" t="s">
-        <v>892</v>
+        <v>906</v>
       </c>
     </row>
     <row r="866" spans="1:5">
@@ -18006,7 +18048,7 @@
         <v>869</v>
       </c>
       <c r="E866" t="s">
-        <v>891</v>
+        <v>905</v>
       </c>
     </row>
     <row r="867" spans="1:5">
@@ -18023,7 +18065,7 @@
         <v>870</v>
       </c>
       <c r="E867" t="s">
-        <v>891</v>
+        <v>905</v>
       </c>
     </row>
     <row r="868" spans="1:5">
@@ -18040,7 +18082,7 @@
         <v>871</v>
       </c>
       <c r="E868" t="s">
-        <v>911</v>
+        <v>925</v>
       </c>
     </row>
     <row r="869" spans="1:5">
@@ -18057,7 +18099,7 @@
         <v>872</v>
       </c>
       <c r="E869" t="s">
-        <v>967</v>
+        <v>981</v>
       </c>
     </row>
     <row r="870" spans="1:5">
@@ -18074,7 +18116,7 @@
         <v>873</v>
       </c>
       <c r="E870" t="s">
-        <v>968</v>
+        <v>982</v>
       </c>
     </row>
     <row r="871" spans="1:5">
@@ -18091,7 +18133,7 @@
         <v>874</v>
       </c>
       <c r="E871" t="s">
-        <v>969</v>
+        <v>983</v>
       </c>
     </row>
     <row r="872" spans="1:5">
@@ -18108,7 +18150,7 @@
         <v>875</v>
       </c>
       <c r="E872" t="s">
-        <v>959</v>
+        <v>973</v>
       </c>
     </row>
     <row r="873" spans="1:5">
@@ -18125,7 +18167,7 @@
         <v>876</v>
       </c>
       <c r="E873" t="s">
-        <v>943</v>
+        <v>957</v>
       </c>
     </row>
     <row r="874" spans="1:5">
@@ -18142,7 +18184,7 @@
         <v>877</v>
       </c>
       <c r="E874" t="s">
-        <v>948</v>
+        <v>917</v>
       </c>
     </row>
     <row r="875" spans="1:5">
@@ -18159,7 +18201,7 @@
         <v>878</v>
       </c>
       <c r="E875" t="s">
-        <v>936</v>
+        <v>950</v>
       </c>
     </row>
     <row r="876" spans="1:5">
@@ -18176,7 +18218,7 @@
         <v>879</v>
       </c>
       <c r="E876" t="s">
-        <v>900</v>
+        <v>914</v>
       </c>
     </row>
     <row r="877" spans="1:5">
@@ -18193,7 +18235,7 @@
         <v>880</v>
       </c>
       <c r="E877" t="s">
-        <v>900</v>
+        <v>914</v>
       </c>
     </row>
     <row r="878" spans="1:5">
@@ -18210,7 +18252,7 @@
         <v>881</v>
       </c>
       <c r="E878" t="s">
-        <v>906</v>
+        <v>918</v>
       </c>
     </row>
     <row r="879" spans="1:5">
@@ -18227,7 +18269,7 @@
         <v>882</v>
       </c>
       <c r="E879" t="s">
-        <v>899</v>
+        <v>913</v>
       </c>
     </row>
     <row r="880" spans="1:5">
@@ -18244,7 +18286,7 @@
         <v>883</v>
       </c>
       <c r="E880" t="s">
-        <v>927</v>
+        <v>941</v>
       </c>
     </row>
     <row r="881" spans="1:5">
@@ -18261,7 +18303,7 @@
         <v>884</v>
       </c>
       <c r="E881" t="s">
-        <v>898</v>
+        <v>941</v>
       </c>
     </row>
     <row r="882" spans="1:5">
@@ -18278,7 +18320,7 @@
         <v>885</v>
       </c>
       <c r="E882" t="s">
-        <v>907</v>
+        <v>921</v>
       </c>
     </row>
     <row r="883" spans="1:5">
@@ -18295,7 +18337,245 @@
         <v>886</v>
       </c>
       <c r="E883" t="s">
-        <v>925</v>
+        <v>939</v>
+      </c>
+    </row>
+    <row r="884" spans="1:5">
+      <c r="A884" s="1">
+        <v>882</v>
+      </c>
+      <c r="B884" t="s">
+        <v>4</v>
+      </c>
+      <c r="C884" t="s">
+        <v>4</v>
+      </c>
+      <c r="D884" t="s">
+        <v>887</v>
+      </c>
+      <c r="E884" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="885" spans="1:5">
+      <c r="A885" s="1">
+        <v>883</v>
+      </c>
+      <c r="B885" t="s">
+        <v>4</v>
+      </c>
+      <c r="C885" t="s">
+        <v>4</v>
+      </c>
+      <c r="D885" t="s">
+        <v>888</v>
+      </c>
+      <c r="E885" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="886" spans="1:5">
+      <c r="A886" s="1">
+        <v>884</v>
+      </c>
+      <c r="B886" t="s">
+        <v>4</v>
+      </c>
+      <c r="C886" t="s">
+        <v>4</v>
+      </c>
+      <c r="D886" t="s">
+        <v>889</v>
+      </c>
+      <c r="E886" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="887" spans="1:5">
+      <c r="A887" s="1">
+        <v>885</v>
+      </c>
+      <c r="B887" t="s">
+        <v>4</v>
+      </c>
+      <c r="C887" t="s">
+        <v>4</v>
+      </c>
+      <c r="D887" t="s">
+        <v>890</v>
+      </c>
+      <c r="E887" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="888" spans="1:5">
+      <c r="A888" s="1">
+        <v>886</v>
+      </c>
+      <c r="B888" t="s">
+        <v>4</v>
+      </c>
+      <c r="C888" t="s">
+        <v>4</v>
+      </c>
+      <c r="D888" t="s">
+        <v>891</v>
+      </c>
+      <c r="E888" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="889" spans="1:5">
+      <c r="A889" s="1">
+        <v>887</v>
+      </c>
+      <c r="B889" t="s">
+        <v>4</v>
+      </c>
+      <c r="C889" t="s">
+        <v>4</v>
+      </c>
+      <c r="D889" t="s">
+        <v>892</v>
+      </c>
+      <c r="E889" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="890" spans="1:5">
+      <c r="A890" s="1">
+        <v>888</v>
+      </c>
+      <c r="B890" t="s">
+        <v>4</v>
+      </c>
+      <c r="C890" t="s">
+        <v>4</v>
+      </c>
+      <c r="D890" t="s">
+        <v>893</v>
+      </c>
+      <c r="E890" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="891" spans="1:5">
+      <c r="A891" s="1">
+        <v>889</v>
+      </c>
+      <c r="B891" t="s">
+        <v>4</v>
+      </c>
+      <c r="C891" t="s">
+        <v>4</v>
+      </c>
+      <c r="D891" t="s">
+        <v>894</v>
+      </c>
+      <c r="E891" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="892" spans="1:5">
+      <c r="A892" s="1">
+        <v>890</v>
+      </c>
+      <c r="B892" t="s">
+        <v>4</v>
+      </c>
+      <c r="C892" t="s">
+        <v>4</v>
+      </c>
+      <c r="D892" t="s">
+        <v>895</v>
+      </c>
+      <c r="E892" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="893" spans="1:5">
+      <c r="A893" s="1">
+        <v>891</v>
+      </c>
+      <c r="B893" t="s">
+        <v>4</v>
+      </c>
+      <c r="C893" t="s">
+        <v>4</v>
+      </c>
+      <c r="D893" t="s">
+        <v>896</v>
+      </c>
+      <c r="E893" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="894" spans="1:5">
+      <c r="A894" s="1">
+        <v>892</v>
+      </c>
+      <c r="B894" t="s">
+        <v>4</v>
+      </c>
+      <c r="C894" t="s">
+        <v>4</v>
+      </c>
+      <c r="D894" t="s">
+        <v>897</v>
+      </c>
+      <c r="E894" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="895" spans="1:5">
+      <c r="A895" s="1">
+        <v>893</v>
+      </c>
+      <c r="B895" t="s">
+        <v>4</v>
+      </c>
+      <c r="C895" t="s">
+        <v>4</v>
+      </c>
+      <c r="D895" t="s">
+        <v>898</v>
+      </c>
+      <c r="E895" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="896" spans="1:5">
+      <c r="A896" s="1">
+        <v>894</v>
+      </c>
+      <c r="B896" t="s">
+        <v>4</v>
+      </c>
+      <c r="C896" t="s">
+        <v>4</v>
+      </c>
+      <c r="D896" t="s">
+        <v>899</v>
+      </c>
+      <c r="E896" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="897" spans="1:5">
+      <c r="A897" s="1">
+        <v>895</v>
+      </c>
+      <c r="B897" t="s">
+        <v>4</v>
+      </c>
+      <c r="C897" t="s">
+        <v>4</v>
+      </c>
+      <c r="D897" t="s">
+        <v>900</v>
+      </c>
+      <c r="E897" t="s">
+        <v>907</v>
       </c>
     </row>
   </sheetData>
